--- a/content/notes/travel/travel.xlsx
+++ b/content/notes/travel/travel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/travel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CF5706-066B-E647-835D-FC33BE3C714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253A696-D8E9-E840-AB78-EEC0E217D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{FBDD8960-5B88-4843-A147-F58767FB427D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="536">
   <si>
     <t>Check In</t>
   </si>
@@ -606,9 +606,6 @@
     <t>Estonian War Museum</t>
   </si>
   <si>
-    <t>0630-0739</t>
-  </si>
-  <si>
     <t>Trakai</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>Pažaislis Monastery</t>
-  </si>
-  <si>
     <t>Sun</t>
   </si>
   <si>
@@ -726,12 +720,6 @@
     <t>Cycle</t>
   </si>
   <si>
-    <t>0700-0705</t>
-  </si>
-  <si>
-    <t>0710-0808</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
@@ -741,45 +729,24 @@
     <t>5-day Ticket</t>
   </si>
   <si>
-    <t>Ühiskaart</t>
-  </si>
-  <si>
     <t>Audio Guide 3€</t>
   </si>
   <si>
     <t>Dome Cathedral</t>
   </si>
   <si>
-    <t>1805-1906</t>
-  </si>
-  <si>
-    <t>0630-0821</t>
-  </si>
-  <si>
-    <t>1726-1906</t>
-  </si>
-  <si>
     <t>Turaida Museum</t>
   </si>
   <si>
     <t>Castle Complex</t>
   </si>
   <si>
-    <t>1925-2310</t>
-  </si>
-  <si>
     <t>0705-1104</t>
   </si>
   <si>
-    <t>Christ Resurrcetion Church</t>
-  </si>
-  <si>
     <t>Mo Museum</t>
   </si>
   <si>
-    <t>Including Elevator</t>
-  </si>
-  <si>
     <t>Travel Card</t>
   </si>
   <si>
@@ -792,9 +759,6 @@
     <t>Cost (€)</t>
   </si>
   <si>
-    <t>11 AM Tour for Individual Visitors</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -1128,12 +1092,6 @@
     <t>Kaunas Castle</t>
   </si>
   <si>
-    <t>Kaunas Town Hall</t>
-  </si>
-  <si>
-    <t>Devil's Museum</t>
-  </si>
-  <si>
     <t>Sunset Trip</t>
   </si>
   <si>
@@ -1170,9 +1128,6 @@
     <t>Estonian History Museum</t>
   </si>
   <si>
-    <t>TV Tower</t>
-  </si>
-  <si>
     <t>Fotografiska</t>
   </si>
   <si>
@@ -1326,9 +1281,6 @@
     <t>Gondola Ride</t>
   </si>
   <si>
-    <t>Round Trip</t>
-  </si>
-  <si>
     <t>St. Mary's Cathedral</t>
   </si>
   <si>
@@ -1569,9 +1521,6 @@
     <t>Helsinki Cathedral</t>
   </si>
   <si>
-    <t>Uspenskin Cathedral</t>
-  </si>
-  <si>
     <t>Evening Cruise</t>
   </si>
   <si>
@@ -1623,12 +1572,6 @@
     <t>Castellan's House</t>
   </si>
   <si>
-    <t>Parliament Tour</t>
-  </si>
-  <si>
-    <t>Historical Presidential Palace</t>
-  </si>
-  <si>
     <t>Vilnius Pass</t>
   </si>
   <si>
@@ -1671,9 +1614,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Tallinn 72h Card</t>
-  </si>
-  <si>
     <t>7 remaining</t>
   </si>
   <si>
@@ -1687,6 +1627,27 @@
   </si>
   <si>
     <t>3€ Funicular Up and Down, VP</t>
+  </si>
+  <si>
+    <t>Uspenski Cathedral</t>
+  </si>
+  <si>
+    <t>Tallinn 56h Card</t>
+  </si>
+  <si>
+    <t>Summer Guided Tour</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Turaida</t>
+  </si>
+  <si>
+    <t>Krimulda Tower</t>
+  </si>
+  <si>
+    <t>One Way</t>
   </si>
 </sst>
 </file>
@@ -2062,38 +2023,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -4495,7 +4456,7 @@
       <c r="O2" s="64"/>
       <c r="P2" s="65"/>
       <c r="R2" s="38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="19" x14ac:dyDescent="0.25">
@@ -4512,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>53</v>
@@ -4550,7 +4511,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F4" s="1">
         <v>29714</v>
@@ -4585,7 +4546,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F5" s="1">
         <v>10060</v>
@@ -4620,7 +4581,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F6" s="1">
         <v>2970</v>
@@ -4655,7 +4616,7 @@
         <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F7" s="1">
         <v>6300</v>
@@ -4691,7 +4652,7 @@
         <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F8" s="1">
         <v>10132</v>
@@ -4775,7 +4736,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>53</v>
@@ -4822,7 +4783,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>22</v>
@@ -4834,7 +4795,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>53</v>
@@ -4846,7 +4807,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="81"/>
       <c r="N13" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="O13" s="41">
         <v>1640</v>
@@ -4873,7 +4834,7 @@
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="N14" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O14" s="41">
         <v>3000</v>
@@ -4892,10 +4853,10 @@
         <v>45794</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>89</v>
@@ -4914,7 +4875,7 @@
       <c r="K15" s="78"/>
       <c r="L15" s="78"/>
       <c r="N15" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="O15" s="41">
         <v>3000</v>
@@ -4933,10 +4894,10 @@
         <v>45795</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>84</v>
@@ -4953,7 +4914,7 @@
       <c r="K16" s="71"/>
       <c r="L16" s="72"/>
       <c r="N16" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="O16" s="41">
         <v>17000</v>
@@ -4972,13 +4933,13 @@
         <v>45795</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>83</v>
@@ -4992,7 +4953,7 @@
       <c r="K17" s="71"/>
       <c r="L17" s="72"/>
       <c r="N17" s="3" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4">
@@ -5009,14 +4970,14 @@
         <v>45795</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G18" s="40">
         <v>1100</v>
@@ -5048,16 +5009,16 @@
         <v>45796</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G19" s="1">
         <v>400</v>
@@ -5081,16 +5042,16 @@
         <v>45796</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G20" s="1">
         <v>300</v>
@@ -5114,16 +5075,16 @@
         <v>45796</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G21" s="40">
         <v>1600</v>
@@ -5151,13 +5112,13 @@
         <v>45797</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>77</v>
@@ -5192,10 +5153,10 @@
         <v>45797</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>91</v>
@@ -5229,13 +5190,13 @@
         <v>45797</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>77</v>
@@ -5245,7 +5206,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="78" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J24" s="78"/>
       <c r="K24" s="78"/>
@@ -5268,10 +5229,10 @@
         <v>45797</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>82</v>
@@ -5306,13 +5267,13 @@
         <v>45798</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>77</v>
@@ -5341,13 +5302,13 @@
         <v>45799</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>77</v>
@@ -5375,13 +5336,13 @@
         <v>45800</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>77</v>
@@ -5391,7 +5352,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="78" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J28" s="78"/>
       <c r="K28" s="78"/>
@@ -5412,14 +5373,14 @@
         <v>45800</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G29" s="40">
         <v>900</v>
@@ -5432,7 +5393,7 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="N29" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>80</v>
@@ -5444,7 +5405,7 @@
         <v>37</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="T29">
         <v>362.54</v>
@@ -5455,13 +5416,13 @@
         <v>45801</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>79</v>
@@ -5498,13 +5459,13 @@
         <v>45801</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>79</v>
@@ -5526,13 +5487,13 @@
         <v>45802</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>79</v>
@@ -5554,13 +5515,13 @@
         <v>45802</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>79</v>
@@ -5586,11 +5547,11 @@
         <v>45802</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>79</v>
@@ -5618,11 +5579,11 @@
         <v>45802</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>79</v>
@@ -5652,13 +5613,13 @@
         <v>45803</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>79</v>
@@ -5680,13 +5641,13 @@
         <v>45803</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>79</v>
@@ -5708,14 +5669,14 @@
         <v>45803</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G38" s="1">
         <v>500</v>
@@ -5734,16 +5695,16 @@
         <v>45804</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G39" s="1">
         <v>500</v>
@@ -5762,23 +5723,23 @@
         <v>45804</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G40" s="1">
         <v>700</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="78" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="J40" s="78"/>
       <c r="K40" s="78"/>
@@ -5792,10 +5753,10 @@
         <v>45805</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>88</v>
@@ -5810,7 +5771,7 @@
         <v>623.46</v>
       </c>
       <c r="I41" s="78" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J41" s="78"/>
       <c r="K41" s="78"/>
@@ -5824,11 +5785,11 @@
         <v>45805</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>90</v>
@@ -5850,13 +5811,13 @@
         <v>45806</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>96</v>
@@ -5878,13 +5839,13 @@
         <v>45806</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>96</v>
@@ -5894,7 +5855,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="78" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J44" s="78"/>
       <c r="K44" s="78"/>
@@ -5908,13 +5869,13 @@
         <v>45806</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>96</v>
@@ -5924,7 +5885,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="78" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J45" s="78"/>
       <c r="K45" s="78"/>
@@ -5938,10 +5899,10 @@
         <v>45807</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>97</v>
@@ -5968,13 +5929,13 @@
         <v>45808</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>85</v>
@@ -5996,13 +5957,13 @@
         <v>45808</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>85</v>
@@ -6024,13 +5985,13 @@
         <v>45808</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>78</v>
@@ -6040,7 +6001,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="78" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J49" s="78"/>
       <c r="K49" s="78"/>
@@ -6049,7 +6010,7 @@
         <v>3982.12</v>
       </c>
       <c r="U49" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
@@ -6057,11 +6018,11 @@
         <v>45808</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>78</v>
@@ -6071,7 +6032,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="78" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J50" s="78"/>
       <c r="K50" s="78"/>
@@ -6085,13 +6046,13 @@
         <v>45808</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>78</v>
@@ -6126,13 +6087,13 @@
         <v>45809</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>78</v>
@@ -6142,7 +6103,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="78" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J53" s="78"/>
       <c r="K53" s="78"/>
@@ -6153,13 +6114,13 @@
         <v>45809</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>78</v>
@@ -6169,7 +6130,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="78" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J54" s="78"/>
       <c r="K54" s="78"/>
@@ -6180,10 +6141,10 @@
         <v>45809</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>86</v>
@@ -6196,7 +6157,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="78" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J55" s="78"/>
       <c r="K55" s="78"/>
@@ -6280,7 +6241,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>69</v>
@@ -6289,16 +6250,16 @@
         <v>70</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J61" s="88" t="s">
         <v>7</v>
@@ -6311,16 +6272,16 @@
         <v>45793</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G62" s="1">
         <v>610</v>
@@ -6328,7 +6289,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="78" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
@@ -6338,16 +6299,16 @@
         <v>45794</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G63" s="1">
         <v>180</v>
@@ -6363,16 +6324,16 @@
         <v>45794</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G64" s="1">
         <v>180</v>
@@ -6388,16 +6349,16 @@
         <v>45795</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G65" s="1">
         <v>390</v>
@@ -6413,16 +6374,16 @@
         <v>45795</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G66" s="1">
         <v>390</v>
@@ -6438,13 +6399,13 @@
         <v>45796</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="40">
@@ -6455,7 +6416,7 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="78" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
@@ -6465,13 +6426,13 @@
         <v>45796</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="40">
@@ -6482,7 +6443,7 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="78" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K68" s="78"/>
       <c r="L68" s="78"/>
@@ -6492,13 +6453,13 @@
         <v>45797</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
@@ -6515,13 +6476,13 @@
         <v>45797</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
@@ -6538,13 +6499,13 @@
         <v>45797</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
@@ -6561,13 +6522,13 @@
         <v>45798</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
@@ -6584,13 +6545,13 @@
         <v>45798</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
@@ -6607,13 +6568,13 @@
         <v>45799</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
@@ -6630,7 +6591,7 @@
         <v>45799</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6647,13 +6608,13 @@
         <v>45800</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
@@ -6670,13 +6631,13 @@
         <v>45800</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
@@ -6693,7 +6654,7 @@
         <v>45800</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6704,7 +6665,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="78"/>
@@ -6714,13 +6675,13 @@
         <v>45800</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
@@ -6737,13 +6698,13 @@
         <v>45800</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
@@ -6760,10 +6721,10 @@
         <v>45801</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>77</v>
@@ -6783,7 +6744,7 @@
         <v>45801</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>77</v>
@@ -6808,13 +6769,13 @@
         <v>45801</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
@@ -6831,13 +6792,13 @@
         <v>45801</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
@@ -6846,7 +6807,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="78" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -6856,13 +6817,13 @@
         <v>45801</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
@@ -6879,13 +6840,13 @@
         <v>45801</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
@@ -6902,13 +6863,13 @@
         <v>45802</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
@@ -6925,16 +6886,16 @@
         <v>45802</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G88" s="1">
         <v>230</v>
@@ -6950,16 +6911,16 @@
         <v>45802</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G89" s="1">
         <v>230</v>
@@ -6975,13 +6936,13 @@
         <v>45803</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
@@ -6998,13 +6959,13 @@
         <v>45803</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
@@ -7021,13 +6982,13 @@
         <v>45803</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
@@ -7044,13 +7005,13 @@
         <v>45803</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
@@ -7067,13 +7028,13 @@
         <v>45804</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
@@ -7082,7 +7043,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="78" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="K94" s="78"/>
       <c r="L94" s="78"/>
@@ -7092,10 +7053,10 @@
         <v>45804</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>79</v>
@@ -7115,13 +7076,13 @@
         <v>45804</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
@@ -7138,13 +7099,13 @@
         <v>45805</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
@@ -7161,10 +7122,10 @@
         <v>45805</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>87</v>
@@ -7184,13 +7145,13 @@
         <v>45805</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
@@ -7207,10 +7168,10 @@
         <v>45805</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>95</v>
@@ -7230,13 +7191,13 @@
         <v>45805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
@@ -7253,13 +7214,13 @@
         <v>45806</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
@@ -7276,13 +7237,13 @@
         <v>45806</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
@@ -7299,13 +7260,13 @@
         <v>45806</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
@@ -7321,10 +7282,10 @@
       <c r="B105" s="31"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
@@ -7341,13 +7302,13 @@
         <v>45807</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
@@ -7364,13 +7325,13 @@
         <v>45807</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
@@ -7387,7 +7348,7 @@
         <v>45808</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>78</v>
@@ -7402,7 +7363,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="78" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K108" s="78"/>
       <c r="L108" s="78"/>
@@ -7412,7 +7373,7 @@
         <v>45808</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>85</v>
@@ -7427,7 +7388,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="78" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K109" s="78"/>
       <c r="L109" s="78"/>
@@ -7437,13 +7398,13 @@
         <v>45810</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
@@ -7625,10 +7586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5F645C-75EE-8D4F-9EC4-3C4B736D2C50}">
-  <dimension ref="B2:R124"/>
+  <dimension ref="B2:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7671,7 +7632,7 @@
       <c r="O2" s="64"/>
       <c r="P2" s="65"/>
       <c r="R2" s="38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="19" x14ac:dyDescent="0.25">
@@ -7688,16 +7649,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
@@ -7714,7 +7675,7 @@
         <v>7</v>
       </c>
       <c r="R3" s="37">
-        <v>101.7</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="19" x14ac:dyDescent="0.25">
@@ -7725,10 +7686,10 @@
         <v>45877</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F4" s="3">
         <v>39.17</v>
@@ -7740,9 +7701,9 @@
         <f>F4/L4</f>
         <v>19.585000000000001</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L10" si="0">C4-B4</f>
         <v>2</v>
@@ -7766,7 +7727,7 @@
         <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F5" s="3">
         <v>26</v>
@@ -7778,9 +7739,9 @@
         <f t="shared" ref="H5:H10" si="1">F5/L5</f>
         <v>26</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7804,7 +7765,7 @@
         <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="F6" s="3">
         <v>128</v>
@@ -7816,9 +7777,9 @@
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7842,7 +7803,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="F7" s="3">
         <v>50.6</v>
@@ -7854,9 +7815,9 @@
         <f t="shared" si="1"/>
         <v>25.3</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7881,7 +7842,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F8" s="3">
         <v>121.47</v>
@@ -7893,11 +7854,11 @@
         <f>F8/L8</f>
         <v>17.352857142857143</v>
       </c>
-      <c r="I8" s="92" t="s">
-        <v>544</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="I8" s="99" t="s">
+        <v>524</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7917,7 +7878,7 @@
         <v>178</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="F9" s="3">
         <v>25</v>
@@ -7929,9 +7890,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7951,7 +7912,7 @@
         <v>179</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F10" s="3">
         <v>128</v>
@@ -7963,11 +7924,11 @@
         <f t="shared" si="1"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="I10" s="92" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
+      <c r="I10" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7988,15 +7949,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="3"/>
       <c r="N11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>53</v>
@@ -8023,26 +7984,26 @@
         <f>F12/L12</f>
         <v>20.729600000000001</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="3">
         <f>SUM(L4:L11)</f>
         <v>25</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O12" s="29">
         <v>75</v>
       </c>
-      <c r="P12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="90" t="s">
+      <c r="P12" s="29">
+        <v>7626.65</v>
+      </c>
+      <c r="Q12" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="R12" s="91"/>
+      <c r="R12" s="98"/>
     </row>
     <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
@@ -8057,75 +8018,81 @@
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
       <c r="N13" s="28" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="O13" s="29">
-        <v>76</v>
-      </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="R13" s="91"/>
+        <v>63</v>
+      </c>
+      <c r="P13" s="29">
+        <v>6406</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>530</v>
+      </c>
+      <c r="R13" s="98"/>
     </row>
     <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="N14" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="29">
-        <v>9</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="R14" s="91"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="N14" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="O14" s="23">
+        <v>56</v>
+      </c>
+      <c r="P14" s="23">
+        <v>5695</v>
+      </c>
+      <c r="Q14" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="N15" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="O15" s="29">
-        <v>3</v>
-      </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="N15" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="119"/>
     </row>
     <row r="16" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="111"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>53</v>
@@ -8137,202 +8104,190 @@
       <c r="K16" s="80"/>
       <c r="L16" s="81"/>
       <c r="N16" s="22" t="s">
-        <v>529</v>
+        <v>228</v>
       </c>
       <c r="O16" s="23">
-        <v>56</v>
-      </c>
-      <c r="P16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="54" t="s">
-        <v>531</v>
-      </c>
-      <c r="R16" s="55"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="119"/>
     </row>
     <row r="17" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="48">
         <v>45875</v>
       </c>
-      <c r="D17" s="107" t="s">
-        <v>508</v>
-      </c>
-      <c r="E17" s="107"/>
+      <c r="D17" s="110" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="110"/>
       <c r="F17" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="N17" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O17" s="26">
         <v>10</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
-      <c r="N17" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="O17" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="119"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="R17" s="115"/>
     </row>
     <row r="18" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="48">
         <v>45875</v>
       </c>
-      <c r="D18" s="107" t="s">
-        <v>509</v>
-      </c>
-      <c r="E18" s="107"/>
+      <c r="D18" s="110" t="s">
+        <v>529</v>
+      </c>
+      <c r="E18" s="110"/>
       <c r="F18" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G18" s="47">
         <v>5</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="N18" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="O18" s="23">
-        <v>12</v>
-      </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="R18" s="119"/>
+      <c r="H18" s="47">
+        <v>508.44</v>
+      </c>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="113"/>
+      <c r="N18" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O18" s="26">
+        <v>2</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="R18" s="115"/>
     </row>
     <row r="19" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
         <v>45875</v>
       </c>
-      <c r="D19" s="107" t="s">
-        <v>510</v>
-      </c>
-      <c r="E19" s="107"/>
+      <c r="D19" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="110"/>
       <c r="F19" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G19" s="47">
         <v>0</v>
       </c>
       <c r="H19" s="47"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="N19" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="O19" s="26">
-        <v>10</v>
-      </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="R19" s="115"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="113"/>
+      <c r="N19" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="O19" s="47">
+        <v>81</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="48">
         <v>45876</v>
       </c>
-      <c r="D20" s="107" t="s">
-        <v>511</v>
-      </c>
-      <c r="E20" s="107"/>
+      <c r="D20" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="110"/>
       <c r="F20" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G20" s="47">
         <v>0</v>
       </c>
       <c r="H20" s="47"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="N20" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="O20" s="26">
-        <v>2</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="R20" s="115"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="113"/>
+      <c r="N20" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="O20" s="4">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1037.5999999999999</v>
+      </c>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
     </row>
     <row r="21" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C21" s="48">
         <v>45876</v>
       </c>
-      <c r="D21" s="107" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="107"/>
+      <c r="D21" s="110" t="s">
+        <v>495</v>
+      </c>
+      <c r="E21" s="110"/>
       <c r="F21" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G21" s="47">
         <v>0</v>
       </c>
       <c r="H21" s="47"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="N21" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="O21" s="47">
-        <v>81</v>
-      </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="112" t="s">
-        <v>449</v>
-      </c>
-      <c r="R21" s="113"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="74"/>
     </row>
     <row r="22" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C22" s="48">
         <v>45876</v>
       </c>
-      <c r="D22" s="107" t="s">
-        <v>513</v>
-      </c>
-      <c r="E22" s="107"/>
+      <c r="D22" s="110" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="110"/>
       <c r="F22" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G22" s="47">
         <v>0</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110"/>
-      <c r="N22" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="O22" s="4">
-        <v>10</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="74"/>
     </row>
@@ -8340,60 +8295,66 @@
       <c r="C23" s="48">
         <v>45876</v>
       </c>
-      <c r="D23" s="107" t="s">
-        <v>514</v>
-      </c>
-      <c r="E23" s="107"/>
+      <c r="D23" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" s="110"/>
       <c r="F23" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G23" s="47">
         <v>0</v>
       </c>
       <c r="H23" s="47"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="113"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="74"/>
+      <c r="O23" s="18">
+        <f>SUM(O12:O22)</f>
+        <v>310.5</v>
+      </c>
+      <c r="P23" s="5">
+        <f>SUM(P12:P20)</f>
+        <v>20765.25</v>
+      </c>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
     </row>
     <row r="24" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="48">
         <v>45876</v>
       </c>
-      <c r="D24" s="107" t="s">
-        <v>515</v>
-      </c>
-      <c r="E24" s="107"/>
+      <c r="D24" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="E24" s="110"/>
       <c r="F24" s="46" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G24" s="47">
         <v>0</v>
       </c>
       <c r="H24" s="47"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="110"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="74"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="113"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
     </row>
     <row r="25" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="49">
         <v>45877</v>
       </c>
-      <c r="D25" s="97" t="s">
-        <v>380</v>
-      </c>
-      <c r="E25" s="97"/>
+      <c r="D25" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="102"/>
       <c r="F25" s="28" t="s">
         <v>175</v>
       </c>
@@ -8401,32 +8362,26 @@
         <v>0</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="101"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="18">
-        <f>SUM(O12:O24)</f>
-        <v>335.5</v>
-      </c>
-      <c r="P25" s="5">
-        <f>O25*$R$3</f>
-        <v>34120.35</v>
-      </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
+      <c r="I25" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="92"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
     </row>
     <row r="26" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C26" s="49">
         <v>45877</v>
       </c>
-      <c r="D26" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="E26" s="97"/>
+      <c r="D26" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" s="102"/>
       <c r="F26" s="28" t="s">
         <v>175</v>
       </c>
@@ -8434,26 +8389,28 @@
         <v>0</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
+      <c r="I26" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="N26" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
     </row>
     <row r="27" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C27" s="49">
         <v>45877</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="28" t="s">
         <v>175</v>
       </c>
@@ -8461,26 +8418,34 @@
         <v>0</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
+      <c r="I27" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="92"/>
+      <c r="N27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="80"/>
     </row>
     <row r="28" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="49">
         <v>45877</v>
       </c>
-      <c r="D28" s="97" t="s">
-        <v>378</v>
-      </c>
-      <c r="E28" s="97"/>
+      <c r="D28" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="102"/>
       <c r="F28" s="28" t="s">
         <v>175</v>
       </c>
@@ -8488,28 +8453,32 @@
         <v>0</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="N28" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
+      <c r="I28" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="92"/>
+      <c r="N28" s="13">
+        <v>45874</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="P28" s="3">
+        <v>27000</v>
+      </c>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="74"/>
     </row>
     <row r="29" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C29" s="49">
         <v>45878</v>
       </c>
-      <c r="D29" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="E29" s="97"/>
+      <c r="D29" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="102"/>
       <c r="F29" s="28" t="s">
         <v>175</v>
       </c>
@@ -8517,34 +8486,32 @@
         <v>0</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="101"/>
-      <c r="N29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="R29" s="80"/>
+      <c r="I29" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="92"/>
+      <c r="N29" s="13">
+        <v>45900</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="P29" s="3">
+        <v>27979</v>
+      </c>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="74"/>
     </row>
     <row r="30" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C30" s="49">
         <v>45878</v>
       </c>
-      <c r="D30" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="E30" s="97"/>
+      <c r="D30" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="E30" s="102"/>
       <c r="F30" s="28" t="s">
         <v>175</v>
       </c>
@@ -8552,20 +8519,17 @@
         <v>0</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
-      <c r="N30" s="13">
-        <v>45874</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="P30" s="3">
-        <v>27000</v>
+      <c r="I30" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="5">
+        <f>P28+P29</f>
+        <v>54979</v>
       </c>
       <c r="Q30" s="73"/>
       <c r="R30" s="74"/>
@@ -8574,10 +8538,10 @@
       <c r="C31" s="49">
         <v>45878</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="101"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
@@ -8585,32 +8549,26 @@
         <v>0</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="101"/>
-      <c r="N31" s="13">
-        <v>45900</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P31" s="3">
-        <v>27979</v>
-      </c>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="74"/>
+      <c r="I31" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="92"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="49">
         <v>45878</v>
       </c>
-      <c r="D32" s="97" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" s="97"/>
+      <c r="D32" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="102"/>
       <c r="F32" s="28" t="s">
         <v>175</v>
       </c>
@@ -8618,30 +8576,27 @@
         <v>0</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="101"/>
+      <c r="I32" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="42"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="5">
-        <f>P30+P31</f>
-        <v>54979</v>
-      </c>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="74"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
     </row>
     <row r="33" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C33" s="49">
         <v>45879</v>
       </c>
-      <c r="D33" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="E33" s="97"/>
+      <c r="D33" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="102"/>
       <c r="F33" s="28" t="s">
         <v>175</v>
       </c>
@@ -8649,26 +8604,28 @@
         <v>0</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
+      <c r="I33" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="92"/>
+      <c r="N33" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
     </row>
     <row r="34" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C34" s="49">
         <v>45879</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="D34" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="97"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="28" t="s">
         <v>175</v>
       </c>
@@ -8676,90 +8633,91 @@
         <v>0</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
+      <c r="I34" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="92"/>
+      <c r="N34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="35" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C35" s="49">
-        <v>45879</v>
-      </c>
-      <c r="D35" s="97" t="s">
-        <v>376</v>
-      </c>
-      <c r="E35" s="97"/>
+        <v>45880</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="102"/>
       <c r="F35" s="28" t="s">
         <v>175</v>
       </c>
       <c r="G35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="101"/>
-      <c r="N35" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
+        <v>95</v>
+      </c>
+      <c r="H35" s="29">
+        <v>9660.4</v>
+      </c>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="92"/>
+      <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3">
+        <v>102.09</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5">
+        <v>30629</v>
+      </c>
     </row>
     <row r="36" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="49">
-        <v>45880</v>
-      </c>
-      <c r="D36" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="97"/>
+        <v>45881</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="102"/>
       <c r="F36" s="28" t="s">
         <v>175</v>
       </c>
       <c r="G36" s="29">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="101"/>
-      <c r="N36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="I36" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="92"/>
     </row>
     <row r="37" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C37" s="49">
         <v>45881</v>
       </c>
-      <c r="D37" s="97" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="97"/>
+      <c r="D37" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="102"/>
       <c r="F37" s="28" t="s">
         <v>175</v>
       </c>
@@ -8767,26 +8725,21 @@
         <v>0</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="99" t="s">
-        <v>250</v>
-      </c>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="101"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="I37" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="92"/>
     </row>
     <row r="38" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C38" s="49">
         <v>45881</v>
       </c>
-      <c r="D38" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="97"/>
+      <c r="D38" s="102" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="102"/>
       <c r="F38" s="28" t="s">
         <v>175</v>
       </c>
@@ -8794,21 +8747,25 @@
         <v>0</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="101"/>
+      <c r="I38" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="92"/>
+      <c r="N38" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C39" s="49">
-        <v>45881</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="E39" s="97"/>
+        <v>45882</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="102"/>
       <c r="F39" s="28" t="s">
         <v>175</v>
       </c>
@@ -8816,21 +8773,27 @@
         <v>0</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="101"/>
+      <c r="I39" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="92"/>
+      <c r="N39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C40" s="49">
-        <v>45881</v>
-      </c>
-      <c r="D40" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="E40" s="97"/>
+        <v>45882</v>
+      </c>
+      <c r="D40" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="102"/>
       <c r="F40" s="28" t="s">
         <v>175</v>
       </c>
@@ -8838,25 +8801,29 @@
         <v>0</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="101"/>
-      <c r="N40" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="O40" s="65"/>
+      <c r="I40" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="92"/>
+      <c r="N40" s="5">
+        <f>(F12+O23+G87+G114)*R3+O7+P30</f>
+        <v>205845.1</v>
+      </c>
+      <c r="O40" s="5">
+        <f>G12+O7+P30+P23+H87+H114</f>
+        <v>169471</v>
+      </c>
     </row>
     <row r="41" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="49">
         <v>45882</v>
       </c>
-      <c r="D41" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="97"/>
+      <c r="D41" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="102"/>
       <c r="F41" s="28" t="s">
         <v>175</v>
       </c>
@@ -8864,79 +8831,65 @@
         <v>0</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="101"/>
-      <c r="N41" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="I41" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="92"/>
     </row>
     <row r="42" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="49">
-        <v>45882</v>
-      </c>
-      <c r="D42" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="97"/>
+        <v>45883</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="102"/>
       <c r="F42" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G42" s="29">
         <v>0</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="101"/>
-      <c r="N42" s="5">
-        <f>O7+G12+H93+P25+P32+R37+H123</f>
-        <v>215226.59600000002</v>
-      </c>
-      <c r="O42" s="5">
-        <f>G12+O7+P32</f>
-        <v>120291.68</v>
-      </c>
+      <c r="I42" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="92"/>
     </row>
     <row r="43" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C43" s="49">
-        <v>45882</v>
-      </c>
-      <c r="D43" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="97"/>
+        <v>45883</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="102"/>
       <c r="F43" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G43" s="29">
-        <v>0</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="101"/>
+        <v>18</v>
+      </c>
+      <c r="H43" s="29">
+        <v>1830.7</v>
+      </c>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="92"/>
     </row>
     <row r="44" spans="3:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C44" s="49">
-        <v>45883</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="97"/>
+      <c r="C44" s="50">
+        <v>45884</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="102"/>
       <c r="F44" s="28" t="s">
         <v>176</v>
       </c>
@@ -8944,43 +8897,43 @@
         <v>0</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="101"/>
+      <c r="I44" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="92"/>
     </row>
     <row r="45" spans="3:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C45" s="49">
-        <v>45883</v>
-      </c>
-      <c r="D45" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="97"/>
+      <c r="C45" s="50">
+        <v>45884</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="102"/>
       <c r="F45" s="28" t="s">
         <v>176</v>
       </c>
       <c r="G45" s="29">
-        <v>18</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="92"/>
     </row>
     <row r="46" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C46" s="50">
         <v>45884</v>
       </c>
-      <c r="D46" s="97" t="s">
-        <v>372</v>
-      </c>
-      <c r="E46" s="97"/>
+      <c r="D46" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="E46" s="102"/>
       <c r="F46" s="28" t="s">
         <v>176</v>
       </c>
@@ -8988,21 +8941,21 @@
         <v>0</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="101"/>
+      <c r="I46" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C47" s="50">
         <v>45884</v>
       </c>
-      <c r="D47" s="97" t="s">
-        <v>371</v>
-      </c>
-      <c r="E47" s="97"/>
+      <c r="D47" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="102"/>
       <c r="F47" s="28" t="s">
         <v>176</v>
       </c>
@@ -9010,21 +8963,21 @@
         <v>0</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="101"/>
+      <c r="I47" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="92"/>
     </row>
     <row r="48" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="50">
         <v>45884</v>
       </c>
-      <c r="D48" s="97" t="s">
-        <v>373</v>
-      </c>
-      <c r="E48" s="97"/>
+      <c r="D48" s="102" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="102"/>
       <c r="F48" s="28" t="s">
         <v>176</v>
       </c>
@@ -9032,311 +8985,313 @@
         <v>0</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="101"/>
+      <c r="I48" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="92"/>
     </row>
     <row r="49" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C49" s="50">
-        <v>45884</v>
-      </c>
-      <c r="D49" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="101"/>
+      <c r="C49" s="51">
+        <v>45885</v>
+      </c>
+      <c r="D49" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="26">
+        <v>9</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="96"/>
     </row>
     <row r="50" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C50" s="50">
-        <v>45884</v>
-      </c>
-      <c r="D50" s="97" t="s">
-        <v>370</v>
-      </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G50" s="29">
-        <v>0</v>
-      </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="101"/>
+      <c r="C50" s="51">
+        <v>45885</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="26">
+        <v>20</v>
+      </c>
+      <c r="H50" s="26">
+        <v>2033.77</v>
+      </c>
+      <c r="I50" s="94"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="96"/>
     </row>
     <row r="51" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="51">
-        <v>45885</v>
-      </c>
-      <c r="D51" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="98"/>
+        <v>45886</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>503</v>
+      </c>
+      <c r="E51" s="93"/>
       <c r="F51" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G51" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" s="26"/>
-      <c r="I51" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="104"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="96"/>
     </row>
     <row r="52" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C52" s="51">
-        <v>45885</v>
-      </c>
-      <c r="D52" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="E52" s="98"/>
+        <v>45886</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>504</v>
+      </c>
+      <c r="E52" s="93"/>
       <c r="F52" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H52" s="26"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="104"/>
+      <c r="I52" s="94" t="s">
+        <v>531</v>
+      </c>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="96"/>
     </row>
     <row r="53" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C53" s="51">
         <v>45886</v>
       </c>
-      <c r="D53" s="98" t="s">
-        <v>520</v>
-      </c>
-      <c r="E53" s="98"/>
+      <c r="D53" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="93"/>
       <c r="F53" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G53" s="26">
-        <v>8</v>
-      </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="104"/>
+        <v>15.72</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1598.8</v>
+      </c>
+      <c r="I53" s="94"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="96"/>
     </row>
     <row r="54" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C54" s="51">
-        <v>45886</v>
-      </c>
-      <c r="D54" s="98" t="s">
-        <v>521</v>
-      </c>
-      <c r="E54" s="98"/>
+        <v>45887</v>
+      </c>
+      <c r="D54" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="93"/>
       <c r="F54" s="25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G54" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="26"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="104"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="96"/>
     </row>
     <row r="55" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C55" s="51">
-        <v>45886</v>
-      </c>
-      <c r="D55" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="98"/>
+        <v>45887</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="93"/>
       <c r="F55" s="25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G55" s="26">
-        <v>15.72</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="102"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="104"/>
+        <v>4.5</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="96"/>
     </row>
     <row r="56" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C56" s="51">
         <v>45887</v>
       </c>
-      <c r="D56" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="98"/>
+      <c r="D56" s="93" t="s">
+        <v>534</v>
+      </c>
+      <c r="E56" s="93"/>
       <c r="F56" s="25" t="s">
         <v>180</v>
       </c>
       <c r="G56" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="26"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
-      <c r="L56" s="104"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="96"/>
     </row>
     <row r="57" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C57" s="51">
         <v>45887</v>
       </c>
-      <c r="D57" s="98" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" s="98"/>
+      <c r="D57" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" s="93"/>
       <c r="F57" s="25" t="s">
         <v>180</v>
       </c>
       <c r="G57" s="26">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="H57" s="26"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="104"/>
+      <c r="I57" s="94" t="s">
+        <v>535</v>
+      </c>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="96"/>
     </row>
     <row r="58" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C58" s="51">
         <v>45887</v>
       </c>
-      <c r="D58" s="98" t="s">
-        <v>367</v>
-      </c>
-      <c r="E58" s="98"/>
+      <c r="D58" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="93"/>
       <c r="F58" s="25" t="s">
         <v>180</v>
       </c>
       <c r="G58" s="26">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H58" s="26"/>
-      <c r="I58" s="102" t="s">
-        <v>428</v>
-      </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="104"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="96"/>
     </row>
     <row r="59" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C59" s="51">
-        <v>45887</v>
-      </c>
-      <c r="D59" s="98" t="s">
-        <v>368</v>
-      </c>
-      <c r="E59" s="98"/>
+        <v>45888</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="93"/>
       <c r="F59" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G59" s="26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H59" s="26"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="104"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="96"/>
     </row>
     <row r="60" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C60" s="51">
         <v>45888</v>
       </c>
-      <c r="D60" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" s="98"/>
+      <c r="D60" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="93"/>
       <c r="F60" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G60" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="104"/>
+      <c r="I60" s="94" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="96"/>
     </row>
     <row r="61" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C61" s="51">
-        <v>45888</v>
-      </c>
-      <c r="D61" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="E61" s="98"/>
+        <v>45889</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="93"/>
       <c r="F61" s="25" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="G61" s="26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
-      <c r="L61" s="104"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="96"/>
     </row>
     <row r="62" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C62" s="51">
-        <v>45889</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>365</v>
-      </c>
-      <c r="E62" s="98"/>
+        <v>45890</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="93"/>
       <c r="F62" s="25" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="G62" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H62" s="26"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="104"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="96"/>
     </row>
     <row r="63" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C63" s="51">
         <v>45890</v>
       </c>
-      <c r="D63" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="98"/>
+      <c r="D63" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="E63" s="93"/>
       <c r="F63" s="25" t="s">
         <v>177</v>
       </c>
@@ -9344,327 +9299,337 @@
         <v>8</v>
       </c>
       <c r="H63" s="26"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="104"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="96"/>
     </row>
     <row r="64" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C64" s="51">
-        <v>45890</v>
-      </c>
-      <c r="D64" s="98" t="s">
-        <v>522</v>
-      </c>
-      <c r="E64" s="98"/>
+        <v>45891</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="93"/>
       <c r="F64" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G64" s="26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H64" s="26"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="104"/>
+      <c r="I64" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="96"/>
     </row>
     <row r="65" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C65" s="51">
         <v>45891</v>
       </c>
-      <c r="D65" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="98"/>
+      <c r="D65" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="93"/>
       <c r="F65" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G65" s="26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H65" s="26"/>
-      <c r="I65" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="104"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="96"/>
     </row>
     <row r="66" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C66" s="51">
         <v>45891</v>
       </c>
-      <c r="D66" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="E66" s="98"/>
+      <c r="D66" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="93"/>
       <c r="F66" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G66" s="26">
-        <v>5</v>
-      </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="104"/>
+        <v>15.72</v>
+      </c>
+      <c r="H66" s="26">
+        <v>1598.8</v>
+      </c>
+      <c r="I66" s="94"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
     </row>
     <row r="67" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C67" s="51">
-        <v>45891</v>
-      </c>
-      <c r="D67" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="98"/>
-      <c r="F67" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="26">
-        <v>15.72</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="102"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="104"/>
+      <c r="C67" s="52">
+        <v>45892</v>
+      </c>
+      <c r="D67" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="E67" s="105"/>
+      <c r="F67" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" s="23">
+        <v>8</v>
+      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
     </row>
     <row r="68" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C68" s="52">
-        <v>45892</v>
-      </c>
-      <c r="D68" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="E68" s="93"/>
+        <v>45894</v>
+      </c>
+      <c r="D68" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="E68" s="105"/>
       <c r="F68" s="22" t="s">
-        <v>533</v>
+        <v>179</v>
       </c>
       <c r="G68" s="23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="34"/>
+      <c r="I68" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="J68" s="106"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="104"/>
     </row>
     <row r="69" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C69" s="52">
         <v>45894</v>
       </c>
-      <c r="D69" s="93" t="s">
-        <v>524</v>
-      </c>
-      <c r="E69" s="93"/>
+      <c r="D69" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="E69" s="105"/>
       <c r="F69" s="22" t="s">
         <v>179</v>
       </c>
       <c r="G69" s="23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="95"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="104"/>
     </row>
     <row r="70" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C70" s="52">
         <v>45894</v>
       </c>
-      <c r="D70" s="93" t="s">
-        <v>523</v>
-      </c>
-      <c r="E70" s="93"/>
+      <c r="D70" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="105"/>
       <c r="F70" s="22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G70" s="23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="95"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="104"/>
     </row>
     <row r="71" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C71" s="52">
-        <v>45894</v>
-      </c>
-      <c r="D71" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="93"/>
+        <v>45895</v>
+      </c>
+      <c r="D71" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="105"/>
       <c r="F71" s="22" t="s">
         <v>189</v>
       </c>
       <c r="G71" s="23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="95"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="104"/>
     </row>
     <row r="72" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C72" s="52">
         <v>45895</v>
       </c>
-      <c r="D72" s="93" t="s">
-        <v>360</v>
-      </c>
-      <c r="E72" s="93"/>
+      <c r="D72" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="E72" s="105"/>
       <c r="F72" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G72" s="23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="95"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="104"/>
     </row>
     <row r="73" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C73" s="52">
-        <v>45895</v>
-      </c>
-      <c r="D73" s="93" t="s">
-        <v>528</v>
-      </c>
-      <c r="E73" s="93"/>
+        <v>45897</v>
+      </c>
+      <c r="D73" s="105" t="s">
+        <v>347</v>
+      </c>
+      <c r="E73" s="105"/>
       <c r="F73" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G73" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="95"/>
+      <c r="I73" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="104"/>
     </row>
     <row r="74" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C74" s="52">
-        <v>45895</v>
-      </c>
-      <c r="D74" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="E74" s="93"/>
+        <v>45897</v>
+      </c>
+      <c r="D74" s="105" t="s">
+        <v>412</v>
+      </c>
+      <c r="E74" s="105"/>
       <c r="F74" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G74" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="95"/>
+      <c r="I74" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="104"/>
     </row>
     <row r="75" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C75" s="52">
-        <v>45895</v>
-      </c>
-      <c r="D75" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="E75" s="93"/>
+        <v>45897</v>
+      </c>
+      <c r="D75" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="105"/>
       <c r="F75" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G75" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="95"/>
+      <c r="I75" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="104"/>
     </row>
     <row r="76" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C76" s="52">
-        <v>45896</v>
-      </c>
-      <c r="D76" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="93"/>
+        <v>45897</v>
+      </c>
+      <c r="D76" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" s="105"/>
       <c r="F76" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G76" s="23">
         <v>10</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="95"/>
+      <c r="I76" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="104"/>
     </row>
     <row r="77" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C77" s="52">
-        <v>45896</v>
-      </c>
-      <c r="D77" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="E77" s="93"/>
+        <v>45897</v>
+      </c>
+      <c r="D77" s="105" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="105"/>
       <c r="F77" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G77" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="95"/>
+      <c r="I77" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="104"/>
     </row>
     <row r="78" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C78" s="52">
-        <v>45896</v>
-      </c>
-      <c r="D78" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="93"/>
+        <v>45898</v>
+      </c>
+      <c r="D78" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="105"/>
       <c r="F78" s="22" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G78" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="95"/>
+      <c r="I78" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J78" s="106"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="104"/>
     </row>
     <row r="79" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C79" s="52">
-        <v>45897</v>
-      </c>
-      <c r="D79" s="93" t="s">
-        <v>359</v>
-      </c>
-      <c r="E79" s="93"/>
+        <v>45898</v>
+      </c>
+      <c r="D79" s="105" t="s">
+        <v>509</v>
+      </c>
+      <c r="E79" s="105"/>
       <c r="F79" s="22" t="s">
         <v>179</v>
       </c>
@@ -9672,21 +9637,21 @@
         <v>0</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="95"/>
+      <c r="I79" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J79" s="106"/>
+      <c r="K79" s="106"/>
+      <c r="L79" s="104"/>
     </row>
     <row r="80" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C80" s="52">
-        <v>45897</v>
-      </c>
-      <c r="D80" s="93" t="s">
-        <v>427</v>
-      </c>
-      <c r="E80" s="93"/>
+        <v>45898</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="105"/>
       <c r="F80" s="22" t="s">
         <v>179</v>
       </c>
@@ -9694,21 +9659,21 @@
         <v>0</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="95"/>
+      <c r="I80" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J80" s="106"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="104"/>
     </row>
     <row r="81" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C81" s="52">
-        <v>45897</v>
-      </c>
-      <c r="D81" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="93"/>
+        <v>45898</v>
+      </c>
+      <c r="D81" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="105"/>
       <c r="F81" s="22" t="s">
         <v>179</v>
       </c>
@@ -9716,43 +9681,43 @@
         <v>0</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="95"/>
+      <c r="I81" s="103" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" s="106"/>
+      <c r="K81" s="106"/>
+      <c r="L81" s="104"/>
     </row>
     <row r="82" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C82" s="52">
-        <v>45897</v>
-      </c>
-      <c r="D82" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" s="93"/>
+        <v>45898</v>
+      </c>
+      <c r="D82" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="E82" s="104"/>
       <c r="F82" s="22" t="s">
         <v>179</v>
       </c>
       <c r="G82" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="95"/>
+      <c r="I82" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="104"/>
     </row>
     <row r="83" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C83" s="52">
-        <v>45897</v>
-      </c>
-      <c r="D83" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="E83" s="93"/>
+        <v>45899</v>
+      </c>
+      <c r="D83" s="103" t="s">
+        <v>515</v>
+      </c>
+      <c r="E83" s="104"/>
       <c r="F83" s="22" t="s">
         <v>179</v>
       </c>
@@ -9760,43 +9725,43 @@
         <v>0</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="95"/>
+      <c r="I83" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
     </row>
     <row r="84" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C84" s="52">
-        <v>45898</v>
-      </c>
-      <c r="D84" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="93"/>
+        <v>45899</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" s="105"/>
       <c r="F84" s="22" t="s">
         <v>179</v>
       </c>
       <c r="G84" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="95"/>
+      <c r="I84" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J84" s="106"/>
+      <c r="K84" s="106"/>
+      <c r="L84" s="104"/>
     </row>
     <row r="85" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C85" s="52">
-        <v>45898</v>
-      </c>
-      <c r="D85" s="93" t="s">
-        <v>526</v>
-      </c>
-      <c r="E85" s="93"/>
+        <v>45899</v>
+      </c>
+      <c r="D85" s="105" t="s">
+        <v>409</v>
+      </c>
+      <c r="E85" s="105"/>
       <c r="F85" s="22" t="s">
         <v>179</v>
       </c>
@@ -9804,465 +9769,465 @@
         <v>0</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="95"/>
+      <c r="I85" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J85" s="106"/>
+      <c r="K85" s="106"/>
+      <c r="L85" s="104"/>
     </row>
     <row r="86" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C86" s="52">
-        <v>45898</v>
-      </c>
-      <c r="D86" s="93" t="s">
-        <v>426</v>
-      </c>
-      <c r="E86" s="93"/>
-      <c r="F86" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G86" s="23">
-        <v>0</v>
-      </c>
-      <c r="H86" s="23"/>
-      <c r="I86" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="95"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="87"/>
     </row>
     <row r="87" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C87" s="52">
-        <v>45898</v>
-      </c>
-      <c r="D87" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="93"/>
-      <c r="F87" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G87" s="23">
-        <v>0</v>
-      </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="94" t="s">
-        <v>548</v>
-      </c>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="95"/>
-    </row>
-    <row r="88" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C88" s="52">
-        <v>45898</v>
-      </c>
-      <c r="D88" s="94" t="s">
-        <v>525</v>
-      </c>
-      <c r="E88" s="95"/>
-      <c r="F88" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G88" s="23">
-        <v>0</v>
-      </c>
-      <c r="H88" s="23"/>
-      <c r="I88" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J88" s="96"/>
-      <c r="K88" s="96"/>
-      <c r="L88" s="95"/>
-    </row>
-    <row r="89" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C89" s="52">
-        <v>45899</v>
-      </c>
-      <c r="D89" s="94" t="s">
-        <v>534</v>
-      </c>
-      <c r="E89" s="95"/>
-      <c r="F89" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G89" s="23">
-        <v>0</v>
-      </c>
-      <c r="H89" s="23"/>
-      <c r="I89" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="34"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="4">
+        <f>SUM(G17:G85)</f>
+        <v>367.94000000000005</v>
+      </c>
+      <c r="H87" s="5">
+        <f>SUM(H17:H85)</f>
+        <v>17230.91</v>
+      </c>
+      <c r="I87" s="67"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="69"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="83"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
     </row>
     <row r="90" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C90" s="52">
-        <v>45899</v>
-      </c>
-      <c r="D90" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="E90" s="93"/>
-      <c r="F90" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G90" s="23">
-        <v>5</v>
-      </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="95"/>
+      <c r="C90" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="65"/>
     </row>
     <row r="91" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C91" s="52">
-        <v>45899</v>
-      </c>
-      <c r="D91" s="93" t="s">
-        <v>424</v>
-      </c>
-      <c r="E91" s="93"/>
-      <c r="F91" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G91" s="23">
-        <v>0</v>
-      </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="94" t="s">
-        <v>547</v>
-      </c>
-      <c r="J91" s="96"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="95"/>
+      <c r="C91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J91" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="62"/>
+      <c r="L91" s="62"/>
     </row>
     <row r="92" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-      <c r="D92" s="78"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="86"/>
-      <c r="L92" s="87"/>
+      <c r="C92" s="45">
+        <v>45877</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G92" s="46">
+        <v>30</v>
+      </c>
+      <c r="H92" s="46">
+        <v>3065</v>
+      </c>
+      <c r="I92" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="J92" s="110" t="s">
+        <v>517</v>
+      </c>
+      <c r="K92" s="110"/>
+      <c r="L92" s="110"/>
     </row>
     <row r="93" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="4">
-        <f>SUM(G17:G91)</f>
-        <v>412.94000000000005</v>
-      </c>
-      <c r="H93" s="5">
-        <f>G93*$R$3</f>
-        <v>41995.998000000007</v>
-      </c>
-      <c r="I93" s="67"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="69"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="84"/>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
+      <c r="C93" s="27">
+        <v>45883</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" s="28">
+        <v>12</v>
+      </c>
+      <c r="H93" s="28">
+        <v>1220</v>
+      </c>
+      <c r="I93" s="28"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="102"/>
+      <c r="L93" s="102"/>
+    </row>
+    <row r="94" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C94" s="27">
+        <v>45885</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="28">
+        <v>19</v>
+      </c>
+      <c r="H94" s="28">
+        <v>1914</v>
+      </c>
+      <c r="I94" s="28"/>
+      <c r="J94" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+    </row>
+    <row r="95" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C95" s="24">
+        <v>45887</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G95" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="93"/>
     </row>
     <row r="96" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C96" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="65"/>
+      <c r="C96" s="24">
+        <v>45887</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G96" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="93"/>
+      <c r="L96" s="93"/>
     </row>
     <row r="97" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J97" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
+      <c r="C97" s="24">
+        <v>45888</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" s="25">
+        <v>4.8</v>
+      </c>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
     </row>
     <row r="98" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C98" s="45">
-        <v>45877</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F98" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="G98" s="46">
-        <v>30</v>
-      </c>
-      <c r="H98" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="J98" s="107" t="s">
-        <v>536</v>
-      </c>
-      <c r="K98" s="107"/>
-      <c r="L98" s="107"/>
+      <c r="C98" s="24">
+        <v>45888</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" s="25">
+        <v>4.8</v>
+      </c>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="93"/>
+      <c r="K98" s="93"/>
+      <c r="L98" s="93"/>
     </row>
     <row r="99" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C99" s="27">
-        <v>45883</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G99" s="28">
-        <v>12</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="28"/>
-      <c r="J99" s="97"/>
-      <c r="K99" s="97"/>
-      <c r="L99" s="97"/>
+      <c r="C99" s="53">
+        <v>45889</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="25">
+        <v>8</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="93"/>
+      <c r="K99" s="93"/>
+      <c r="L99" s="93"/>
     </row>
     <row r="100" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C100" s="27">
-        <v>45885</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>176</v>
+      <c r="C100" s="53">
+        <v>45889</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>352</v>
       </c>
       <c r="E100" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F100" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G100" s="28">
-        <v>19</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="28"/>
-      <c r="J100" s="97" t="s">
-        <v>535</v>
-      </c>
-      <c r="K100" s="97"/>
-      <c r="L100" s="97"/>
+      <c r="F100" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="25">
+        <v>8</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="93"/>
+      <c r="K100" s="93"/>
+      <c r="L100" s="93"/>
     </row>
     <row r="101" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C101" s="24">
-        <v>45887</v>
+      <c r="C101" s="21">
+        <v>45892</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E101" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F101" s="25" t="s">
+      <c r="E101" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="22">
+        <v>11</v>
+      </c>
+      <c r="H101" s="22">
+        <v>1108</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J101" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="K101" s="105"/>
+      <c r="L101" s="105"/>
+    </row>
+    <row r="102" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C102" s="21">
+        <v>45892</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G102" s="22">
+        <v>3</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="105"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
+    </row>
+    <row r="103" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C103" s="21">
+        <v>45892</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
+    </row>
+    <row r="104" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C104" s="21">
+        <v>45893</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G104" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="105"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
+    </row>
+    <row r="105" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C105" s="21">
+        <v>45893</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G105" s="22">
+        <v>6</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
+    </row>
+    <row r="106" spans="3:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="C106" s="21">
+        <v>45893</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G101" s="25">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J101" s="98"/>
-      <c r="K101" s="98"/>
-      <c r="L101" s="98"/>
-    </row>
-    <row r="102" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C102" s="24">
-        <v>45887</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G102" s="25">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="J102" s="98"/>
-      <c r="K102" s="98"/>
-      <c r="L102" s="98"/>
-    </row>
-    <row r="103" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C103" s="24">
-        <v>45888</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103" s="25">
-        <v>4.32</v>
-      </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="J103" s="98"/>
-      <c r="K103" s="98"/>
-      <c r="L103" s="98"/>
-    </row>
-    <row r="104" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C104" s="24">
-        <v>45888</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G104" s="25">
-        <v>4.32</v>
-      </c>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="J104" s="98"/>
-      <c r="K104" s="98"/>
-      <c r="L104" s="98"/>
-    </row>
-    <row r="105" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C105" s="53">
-        <v>45889</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G105" s="25">
-        <v>8</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="98"/>
-      <c r="K105" s="98"/>
-      <c r="L105" s="98"/>
-    </row>
-    <row r="106" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C106" s="53">
-        <v>45889</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G106" s="25">
-        <v>8</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="98"/>
-      <c r="K106" s="98"/>
-      <c r="L106" s="98"/>
+      <c r="G106" s="22">
+        <v>15</v>
+      </c>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="K106" s="106"/>
+      <c r="L106" s="104"/>
     </row>
     <row r="107" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C107" s="21">
-        <v>45892</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>177</v>
+        <v>45893</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="E107" s="22" t="s">
         <v>178</v>
@@ -10271,593 +10236,358 @@
         <v>195</v>
       </c>
       <c r="G107" s="22">
-        <v>11</v>
-      </c>
-      <c r="H107" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="J107" s="93" t="s">
-        <v>535</v>
-      </c>
-      <c r="K107" s="93"/>
-      <c r="L107" s="93"/>
+        <v>1.5</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="105"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
     </row>
     <row r="108" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C108" s="21">
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>178</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>533</v>
+        <v>179</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G108" s="22">
-        <v>3</v>
-      </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J108" s="93"/>
-      <c r="K108" s="93"/>
-      <c r="L108" s="93"/>
+        <v>25</v>
+      </c>
+      <c r="H108" s="22">
+        <v>2542</v>
+      </c>
+      <c r="I108" s="22"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
     </row>
     <row r="109" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C109" s="21">
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>533</v>
+        <v>179</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G109" s="22">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H109" s="22"/>
-      <c r="I109" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J109" s="93"/>
-      <c r="K109" s="93"/>
-      <c r="L109" s="93"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
     </row>
     <row r="110" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C110" s="21">
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G110" s="22">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H110" s="22"/>
-      <c r="I110" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J110" s="93"/>
-      <c r="K110" s="93"/>
-      <c r="L110" s="93"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
+      <c r="L110" s="105"/>
     </row>
     <row r="111" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C111" s="21">
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G111" s="22">
-        <v>5.7</v>
-      </c>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="J111" s="93"/>
-      <c r="K111" s="93"/>
-      <c r="L111" s="93"/>
+        <v>6.3</v>
+      </c>
+      <c r="H111" s="22">
+        <v>640.64</v>
+      </c>
+      <c r="I111" s="22"/>
+      <c r="J111" s="105"/>
+      <c r="K111" s="105"/>
+      <c r="L111" s="105"/>
     </row>
     <row r="112" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C112" s="21">
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G112" s="22">
-        <v>15</v>
-      </c>
-      <c r="H112" s="22"/>
+        <v>6.82</v>
+      </c>
+      <c r="H112" s="22">
+        <v>693.52</v>
+      </c>
       <c r="I112" s="22"/>
-      <c r="J112" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="K112" s="96"/>
-      <c r="L112" s="95"/>
-    </row>
-    <row r="113" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C113" s="21">
-        <v>45893</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G113" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="93"/>
-      <c r="L113" s="93"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="105"/>
+      <c r="L112" s="105"/>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="78"/>
     </row>
     <row r="114" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C114" s="21">
-        <v>45893</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G114" s="22">
-        <v>25</v>
-      </c>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="J114" s="93"/>
-      <c r="K114" s="93"/>
-      <c r="L114" s="93"/>
-    </row>
-    <row r="115" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C115" s="21">
-        <v>45894</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G115" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="93"/>
-      <c r="K115" s="93"/>
-      <c r="L115" s="93"/>
-    </row>
-    <row r="116" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C116" s="21">
-        <v>45894</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F116" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G116" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="93"/>
-      <c r="K116" s="93"/>
-      <c r="L116" s="93"/>
-    </row>
-    <row r="117" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C117" s="21">
-        <v>45894</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F117" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G117" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="93"/>
-      <c r="K117" s="93"/>
-      <c r="L117" s="93"/>
-    </row>
-    <row r="118" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C118" s="21">
-        <v>45895</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F118" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G118" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="93"/>
-      <c r="K118" s="93"/>
-      <c r="L118" s="93"/>
-    </row>
-    <row r="119" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C119" s="21">
-        <v>45895</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G119" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="93"/>
-      <c r="K119" s="93"/>
-      <c r="L119" s="93"/>
-    </row>
-    <row r="120" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C120" s="21">
-        <v>45896</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G120" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="93"/>
-      <c r="K120" s="93"/>
-      <c r="L120" s="93"/>
-    </row>
-    <row r="121" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C121" s="21">
-        <v>45896</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F121" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G121" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="93"/>
-      <c r="K121" s="93"/>
-      <c r="L121" s="93"/>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="78"/>
-      <c r="K122" s="78"/>
-      <c r="L122" s="78"/>
-    </row>
-    <row r="123" spans="3:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="C123" s="13"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="30">
-        <f>SUM(G98:G121)</f>
-        <v>185.03999999999994</v>
-      </c>
-      <c r="H123" s="5">
-        <f>G123*$R$3</f>
-        <v>18818.567999999996</v>
-      </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="66"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="44"/>
-      <c r="L124" s="44"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="30">
+        <f>SUM(G92:G112)</f>
+        <v>176.32</v>
+      </c>
+      <c r="H114" s="5">
+        <f>SUM(H92:H112)</f>
+        <v>11183.16</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="J117:L117"/>
+  <mergeCells count="205">
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="J110:L110"/>
     <mergeCell ref="N10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N33:R34"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N31:R32"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="N26:R27"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="N24:R25"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D79:E79"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I71:L71"/>
     <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I70:L70"/>
     <mergeCell ref="I75:L75"/>
     <mergeCell ref="I76:L76"/>
     <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I86:L86"/>
     <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="C88:L89"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="I46:L46"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="C94:L95"/>
-    <mergeCell ref="C96:L96"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I47:L47"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
@@ -10870,6 +10600,14 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="D13:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10880,7 +10618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674ABC88-18C8-FD43-A638-81534DB08858}">
   <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="99" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -10924,7 +10662,7 @@
       <c r="O2" s="64"/>
       <c r="P2" s="65"/>
       <c r="R2" s="38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="19" x14ac:dyDescent="0.25">
@@ -10941,7 +10679,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>53</v>
@@ -10976,10 +10714,10 @@
         <v>45883</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F4" s="3">
         <v>2001</v>
@@ -11005,10 +10743,10 @@
         <v>45884</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F5" s="3">
         <v>400</v>
@@ -11034,10 +10772,10 @@
         <v>45888</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F6" s="3">
         <v>746</v>
@@ -11065,10 +10803,10 @@
         <v>45889</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F7" s="3">
         <v>625</v>
@@ -11163,7 +10901,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>53</v>
@@ -11188,7 +10926,7 @@
       <c r="K12" s="76"/>
       <c r="L12" s="77"/>
       <c r="N12" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="O12" s="4">
         <v>1299</v>
@@ -11202,7 +10940,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>22</v>
@@ -11214,7 +10952,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>53</v>
@@ -11226,7 +10964,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
       <c r="N13" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="O13" s="4">
         <v>499</v>
@@ -11240,10 +10978,10 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G14" s="1">
         <v>69</v>
@@ -11254,7 +10992,7 @@
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="N14" s="3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="O14" s="4">
         <v>70</v>
@@ -11268,23 +11006,23 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J15" s="78"/>
       <c r="K15" s="78"/>
       <c r="L15" s="78"/>
       <c r="N15" s="3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="O15" s="18">
         <v>175</v>
@@ -11298,17 +11036,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
@@ -11324,17 +11062,17 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J17" s="78"/>
       <c r="K17" s="78"/>
@@ -11350,17 +11088,17 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="78"/>
@@ -11376,17 +11114,17 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J19" s="78"/>
       <c r="K19" s="78"/>
@@ -11402,17 +11140,17 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
@@ -11434,17 +11172,17 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J21" s="78"/>
       <c r="K21" s="78"/>
@@ -11460,10 +11198,10 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G22" s="1">
         <v>169</v>
@@ -11484,17 +11222,17 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
@@ -11513,10 +11251,10 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G24" s="1">
         <v>50</v>
@@ -11546,17 +11284,17 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J25" s="78"/>
       <c r="K25" s="78"/>
@@ -11573,17 +11311,17 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="78"/>
@@ -11600,17 +11338,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="78"/>
@@ -11629,10 +11367,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G28" s="1">
         <v>155</v>
@@ -11653,17 +11391,17 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="120" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J29" s="121"/>
       <c r="K29" s="121"/>
@@ -11679,10 +11417,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G30" s="1">
         <v>155</v>
@@ -11707,17 +11445,17 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="120" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J31" s="121"/>
       <c r="K31" s="121"/>
@@ -11749,17 +11487,17 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J32" s="78"/>
       <c r="K32" s="78"/>
@@ -11777,17 +11515,17 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
@@ -11798,10 +11536,10 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G34" s="1">
         <v>60</v>
@@ -11817,17 +11555,17 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J35" s="78"/>
       <c r="K35" s="78"/>
@@ -11842,17 +11580,17 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
@@ -11869,17 +11607,17 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="J37" s="78"/>
       <c r="K37" s="78"/>
@@ -11895,10 +11633,10 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G38" s="1">
         <v>20</v>
@@ -11914,10 +11652,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G39" s="1">
         <v>20</v>
@@ -11933,10 +11671,10 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G40" s="1">
         <v>20</v>
@@ -11952,10 +11690,10 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G41" s="1">
         <v>25</v>
@@ -11971,10 +11709,10 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G42" s="1">
         <v>145</v>
@@ -11990,17 +11728,17 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G43" s="1">
         <v>103</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="78" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="J43" s="78"/>
       <c r="K43" s="78"/>
@@ -12011,10 +11749,10 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G44" s="1">
         <v>75</v>
@@ -12030,10 +11768,10 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G45" s="1">
         <v>190</v>
@@ -12049,10 +11787,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G46" s="1">
         <v>180</v>
@@ -12068,10 +11806,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -12087,10 +11825,10 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G48" s="1">
         <v>200</v>
@@ -12192,7 +11930,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>69</v>
@@ -12201,16 +11939,16 @@
         <v>70</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J55" s="88" t="s">
         <v>7</v>
@@ -12222,10 +11960,10 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
@@ -12241,10 +11979,10 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
@@ -12253,7 +11991,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K57" s="78"/>
       <c r="L57" s="78"/>
@@ -12262,10 +12000,10 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
@@ -12274,7 +12012,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K58" s="78"/>
       <c r="L58" s="78"/>
@@ -12283,10 +12021,10 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
@@ -12295,7 +12033,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
@@ -12304,10 +12042,10 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
@@ -12316,7 +12054,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="78"/>
@@ -12325,10 +12063,10 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
@@ -12337,7 +12075,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K61" s="78"/>
       <c r="L61" s="78"/>
@@ -12346,13 +12084,13 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G62" s="1">
         <v>45</v>
@@ -12367,13 +12105,13 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G63" s="1">
         <v>45</v>
@@ -12388,10 +12126,10 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
@@ -12400,7 +12138,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="78" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K64" s="78"/>
       <c r="L64" s="78"/>
@@ -12409,10 +12147,10 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
@@ -12420,7 +12158,7 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="J65" s="78"/>
       <c r="K65" s="78"/>
@@ -12430,10 +12168,10 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
@@ -12449,10 +12187,10 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
@@ -12468,10 +12206,10 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
@@ -12479,7 +12217,7 @@
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="J68" s="78"/>
       <c r="K68" s="78"/>
@@ -12489,10 +12227,10 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
@@ -12500,7 +12238,7 @@
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="J69" s="78"/>
       <c r="K69" s="78"/>
@@ -12510,10 +12248,10 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
@@ -12521,7 +12259,7 @@
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="J70" s="78"/>
       <c r="K70" s="78"/>
@@ -12531,10 +12269,10 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
@@ -12542,7 +12280,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="J71" s="78"/>
       <c r="K71" s="78"/>
@@ -12552,10 +12290,10 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
@@ -12563,7 +12301,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="J72" s="78"/>
       <c r="K72" s="78"/>
@@ -12573,10 +12311,10 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
@@ -12584,7 +12322,7 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="J73" s="78"/>
       <c r="K73" s="78"/>
@@ -12594,10 +12332,10 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
@@ -12605,7 +12343,7 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="J74" s="78"/>
       <c r="K74" s="78"/>
@@ -12615,10 +12353,10 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
@@ -12626,7 +12364,7 @@
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J75" s="78"/>
       <c r="K75" s="78"/>
@@ -12837,7 +12575,7 @@
       <c r="O2" s="64"/>
       <c r="P2" s="65"/>
       <c r="R2" s="38" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="19" x14ac:dyDescent="0.25">
@@ -12854,7 +12592,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>53</v>
@@ -12889,10 +12627,10 @@
         <v>45893</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F4" s="3">
         <v>1640</v>
@@ -12920,10 +12658,10 @@
         <v>45900</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F5" s="3">
         <v>2730</v>
@@ -13046,7 +12784,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>22</v>
@@ -13058,7 +12796,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>53</v>
@@ -13073,7 +12811,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>53</v>
@@ -13088,10 +12826,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G12" s="1">
         <v>150</v>
@@ -13102,7 +12840,7 @@
       <c r="K12" s="78"/>
       <c r="L12" s="78"/>
       <c r="N12" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="O12" s="4">
         <v>499</v>
@@ -13116,23 +12854,23 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G13" s="1">
         <v>140</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J13" s="78"/>
       <c r="K13" s="78"/>
       <c r="L13" s="78"/>
       <c r="N13" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="O13" s="4">
         <v>240</v>
@@ -13146,10 +12884,10 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -13170,17 +12908,17 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G15" s="1">
         <v>160</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J15" s="78"/>
       <c r="K15" s="78"/>
@@ -13196,10 +12934,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G16" s="1">
         <v>1955</v>
@@ -13220,17 +12958,17 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G17" s="1">
         <v>250</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J17" s="78"/>
       <c r="K17" s="78"/>
@@ -13246,10 +12984,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G18" s="1">
         <v>150</v>
@@ -13270,10 +13008,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -13294,17 +13032,17 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G20" s="1">
         <v>230</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
@@ -13326,17 +13064,17 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G21" s="1">
         <v>180</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J21" s="78"/>
       <c r="K21" s="78"/>
@@ -13352,17 +13090,17 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G22" s="1">
         <v>285</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="78" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
@@ -13378,10 +13116,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G23" s="1">
         <v>220</v>
@@ -13405,10 +13143,10 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G24" s="1">
         <v>60</v>
@@ -13438,10 +13176,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G25" s="1">
         <v>150</v>
@@ -13455,7 +13193,7 @@
         <v>45885</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="11"/>
@@ -13467,10 +13205,10 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G26" s="1">
         <v>219</v>
@@ -13659,7 +13397,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>69</v>
@@ -13668,16 +13406,16 @@
         <v>70</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J35" s="88" t="s">
         <v>7</v>
@@ -13694,16 +13432,16 @@
         <v>45893</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G36" s="1">
         <v>195</v>

--- a/content/notes/travel/travel.xlsx
+++ b/content/notes/travel/travel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/travel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35716791-8D7C-DB4A-9E77-76CF3B902C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413342D6-A9C7-714F-B590-C5860CF32CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{FBDD8960-5B88-4843-A147-F58767FB427D}"/>
   </bookViews>
@@ -2003,52 +2003,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3198,7 +3198,7 @@
   <dimension ref="B2:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,11 +3758,11 @@
         <v>37</v>
       </c>
       <c r="N17" s="4">
-        <f ca="1">SUM(N13:N17)</f>
+        <f>SUM(N13:N16)</f>
         <v>1200</v>
       </c>
       <c r="O17" s="4">
-        <f ca="1">SUM(O13:O17)</f>
+        <f>SUM(O13:O16)</f>
         <v>25319.93</v>
       </c>
       <c r="P17" s="5">
@@ -4398,7 +4398,7 @@
   <dimension ref="B2:U112"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28:R30"/>
+      <selection activeCell="N19" sqref="N19:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7573,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5F645C-75EE-8D4F-9EC4-3C4B736D2C50}">
   <dimension ref="B2:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7686,9 +7686,9 @@
         <f>F4/L4</f>
         <v>19.585000000000001</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L10" si="0">C4-B4</f>
         <v>2</v>
@@ -7724,9 +7724,9 @@
         <f t="shared" ref="H5:H10" si="1">F5/L5</f>
         <v>26</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7762,9 +7762,9 @@
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7800,9 +7800,9 @@
         <f t="shared" si="1"/>
         <v>25.3</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7839,9 +7839,9 @@
         <f>F8/L8</f>
         <v>17.352857142857143</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
       <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7873,9 +7873,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7907,9 +7907,9 @@
         <f t="shared" si="1"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7930,9 +7930,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
       <c r="L11" s="3"/>
       <c r="N11" s="6" t="s">
         <v>45</v>
@@ -7965,9 +7965,9 @@
         <f>F12/L12</f>
         <v>20.729600000000001</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="3">
         <f>SUM(L4:L11)</f>
         <v>25</v>
@@ -7981,10 +7981,10 @@
       <c r="P12" s="29">
         <v>7626.65</v>
       </c>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="R12" s="93"/>
+      <c r="R12" s="96"/>
     </row>
     <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
@@ -8011,15 +8011,15 @@
       <c r="R13" s="58"/>
     </row>
     <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
       <c r="N14" s="28" t="s">
         <v>509</v>
       </c>
@@ -8029,24 +8029,24 @@
       <c r="P14" s="29">
         <v>6406</v>
       </c>
-      <c r="Q14" s="92" t="s">
+      <c r="Q14" s="95" t="s">
         <v>517</v>
       </c>
-      <c r="R14" s="93"/>
+      <c r="R14" s="96"/>
     </row>
     <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
       <c r="N15" s="22" t="s">
         <v>502</v>
       </c>
@@ -8065,10 +8065,10 @@
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="113"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
@@ -8091,10 +8091,10 @@
         <v>13.5</v>
       </c>
       <c r="P16" s="23"/>
-      <c r="Q16" s="94" t="s">
+      <c r="Q16" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="95"/>
+      <c r="R16" s="98"/>
     </row>
     <row r="17" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="48">
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="47"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
       <c r="N17" s="25" t="s">
         <v>523</v>
       </c>
@@ -8122,10 +8122,10 @@
         <v>8</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="111" t="s">
+      <c r="Q17" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="R17" s="112"/>
+      <c r="R17" s="122"/>
     </row>
     <row r="18" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="48">
@@ -8144,10 +8144,10 @@
       <c r="H18" s="47">
         <v>508.44</v>
       </c>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
       <c r="N18" s="46" t="s">
         <v>485</v>
       </c>
@@ -8155,10 +8155,10 @@
         <v>81</v>
       </c>
       <c r="P18" s="47"/>
-      <c r="Q18" s="117" t="s">
+      <c r="Q18" s="108" t="s">
         <v>427</v>
       </c>
-      <c r="R18" s="118"/>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
@@ -8175,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="47"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="N19" s="3" t="s">
         <v>510</v>
       </c>
@@ -8206,10 +8206,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="47"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="116"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="47"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -8256,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
       <c r="N22" s="3"/>
       <c r="O22" s="18">
         <f>SUM(O12:O21)</f>
@@ -8269,8 +8269,8 @@
         <f>SUM(P12:P19)</f>
         <v>20765.25</v>
       </c>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="106"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="111"/>
     </row>
     <row r="23" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="48">
@@ -8287,10 +8287,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="47"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
       <c r="N23" s="83"/>
       <c r="O23" s="83"/>
       <c r="P23" s="83"/>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="47"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="P24" s="84"/>
@@ -8337,12 +8337,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="108" t="s">
+      <c r="I25" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="114"/>
       <c r="N25" s="64" t="s">
         <v>38</v>
       </c>
@@ -8366,12 +8366,12 @@
         <v>0</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="108" t="s">
+      <c r="I26" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="110"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="114"/>
       <c r="N26" s="6" t="s">
         <v>20</v>
       </c>
@@ -8401,12 +8401,12 @@
         <v>0</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="114"/>
       <c r="N27" s="13">
         <v>45874</v>
       </c>
@@ -8434,12 +8434,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="110"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
       <c r="N28" s="13">
         <v>45900</v>
       </c>
@@ -8467,12 +8467,12 @@
         <v>0</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="110"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="114"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="5">
@@ -8497,12 +8497,12 @@
         <v>0</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="108" t="s">
+      <c r="I30" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="110"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="114"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
@@ -8513,10 +8513,10 @@
       <c r="C31" s="49">
         <v>45878</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
@@ -8524,12 +8524,12 @@
         <v>0</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="108" t="s">
+      <c r="I31" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="110"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
       <c r="N31" s="84"/>
       <c r="O31" s="84"/>
       <c r="P31" s="84"/>
@@ -8551,12 +8551,12 @@
         <v>0</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="108" t="s">
+      <c r="I32" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="110"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
       <c r="M32" s="42"/>
       <c r="N32" s="62" t="s">
         <v>55</v>
@@ -8581,12 +8581,12 @@
         <v>0</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="108" t="s">
+      <c r="I33" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="110"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
       <c r="N33" s="6" t="s">
         <v>94</v>
       </c>
@@ -8618,12 +8618,12 @@
         <v>0</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="108" t="s">
+      <c r="I34" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="110"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
       <c r="N34" s="3">
         <v>300</v>
       </c>
@@ -8655,10 +8655,10 @@
       <c r="H35" s="29">
         <v>9660.4</v>
       </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="110"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
     </row>
     <row r="36" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="49">
@@ -8675,12 +8675,12 @@
         <v>0</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="108" t="s">
+      <c r="I36" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="110"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
     </row>
     <row r="37" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C37" s="49">
@@ -8697,18 +8697,18 @@
         <v>0</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="108" t="s">
+      <c r="I37" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="110"/>
-      <c r="N37" s="124" t="s">
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
+      <c r="N37" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
     </row>
     <row r="38" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C38" s="49">
@@ -8725,12 +8725,12 @@
         <v>0</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="108" t="s">
+      <c r="I38" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="110"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
       <c r="N38" s="6" t="s">
         <v>67</v>
       </c>
@@ -8759,12 +8759,12 @@
         <v>0</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="108" t="s">
+      <c r="I39" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="110"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="114"/>
       <c r="N39" s="5">
         <f>(F12+O22+G82+G110)*R3+O7+P29</f>
         <v>204376.2</v>
@@ -8796,12 +8796,12 @@
         <v>0</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="108" t="s">
+      <c r="I40" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="110"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="114"/>
     </row>
     <row r="41" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="49">
@@ -8818,12 +8818,12 @@
         <v>0</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="108" t="s">
+      <c r="I41" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="110"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="114"/>
     </row>
     <row r="42" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="49">
@@ -8840,12 +8840,12 @@
         <v>0</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="108" t="s">
+      <c r="I42" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="110"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="114"/>
     </row>
     <row r="43" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C43" s="49">
@@ -8864,10 +8864,10 @@
       <c r="H43" s="29">
         <v>1830.7</v>
       </c>
-      <c r="I43" s="108"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="110"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="114"/>
     </row>
     <row r="44" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C44" s="50">
@@ -8884,12 +8884,12 @@
         <v>0</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="108" t="s">
+      <c r="I44" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="110"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="114"/>
     </row>
     <row r="45" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C45" s="50">
@@ -8906,12 +8906,12 @@
         <v>0</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="108" t="s">
+      <c r="I45" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="110"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="114"/>
     </row>
     <row r="46" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C46" s="50">
@@ -8928,12 +8928,12 @@
         <v>0</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="108" t="s">
+      <c r="I46" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="110"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="114"/>
     </row>
     <row r="47" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C47" s="50">
@@ -8950,12 +8950,12 @@
         <v>0</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="110"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="114"/>
     </row>
     <row r="48" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="50">
@@ -8972,12 +8972,12 @@
         <v>0</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="108" t="s">
+      <c r="I48" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="110"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="114"/>
     </row>
     <row r="49" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C49" s="51">
@@ -8994,12 +8994,12 @@
         <v>9</v>
       </c>
       <c r="H49" s="26"/>
-      <c r="I49" s="96" t="s">
+      <c r="I49" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="98"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="94"/>
     </row>
     <row r="50" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C50" s="51">
@@ -9018,10 +9018,10 @@
       <c r="H50" s="26">
         <v>2033.77</v>
       </c>
-      <c r="I50" s="96"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="98"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="94"/>
     </row>
     <row r="51" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="51">
@@ -9038,10 +9038,10 @@
         <v>8</v>
       </c>
       <c r="H51" s="26"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="98"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="94"/>
     </row>
     <row r="52" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C52" s="51">
@@ -9058,12 +9058,12 @@
         <v>5</v>
       </c>
       <c r="H52" s="26"/>
-      <c r="I52" s="96" t="s">
+      <c r="I52" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="98"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="94"/>
     </row>
     <row r="53" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C53" s="51">
@@ -9082,10 +9082,10 @@
       <c r="H53" s="26">
         <v>1598.8</v>
       </c>
-      <c r="I53" s="96"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="94"/>
     </row>
     <row r="54" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C54" s="51">
@@ -9102,10 +9102,10 @@
         <v>6</v>
       </c>
       <c r="H54" s="26"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="98"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="94"/>
     </row>
     <row r="55" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C55" s="51">
@@ -9122,10 +9122,10 @@
         <v>4.5</v>
       </c>
       <c r="H55" s="26"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="98"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="94"/>
     </row>
     <row r="56" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C56" s="51">
@@ -9142,12 +9142,12 @@
         <v>14</v>
       </c>
       <c r="H56" s="26"/>
-      <c r="I56" s="96" t="s">
+      <c r="I56" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="94"/>
     </row>
     <row r="57" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C57" s="51">
@@ -9164,10 +9164,10 @@
         <v>12</v>
       </c>
       <c r="H57" s="26"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="98"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94"/>
     </row>
     <row r="58" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C58" s="51">
@@ -9186,10 +9186,10 @@
       <c r="H58" s="26">
         <v>1221.33</v>
       </c>
-      <c r="I58" s="96"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="98"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="94"/>
     </row>
     <row r="59" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C59" s="51">
@@ -9206,10 +9206,10 @@
         <v>8</v>
       </c>
       <c r="H59" s="26"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="98"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="94"/>
     </row>
     <row r="60" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C60" s="51">
@@ -9226,10 +9226,10 @@
         <v>10</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="98"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="94"/>
     </row>
     <row r="61" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C61" s="51">
@@ -9246,10 +9246,10 @@
         <v>5</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="98"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="94"/>
     </row>
     <row r="62" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C62" s="51">
@@ -9268,10 +9268,10 @@
       <c r="H62" s="26">
         <v>1598.8</v>
       </c>
-      <c r="I62" s="96"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="98"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="94"/>
     </row>
     <row r="63" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C63" s="52">
@@ -10325,8 +10325,17 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="D13:L14"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D35:E35"/>
@@ -10335,38 +10344,10 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="I35:L35"/>
@@ -10379,8 +10360,16 @@
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I38:L38"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="N8:P9"/>
@@ -10405,51 +10394,35 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="N23:R24"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I45:L45"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I41:L41"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="I67:L67"/>
-    <mergeCell ref="J106:L106"/>
     <mergeCell ref="I77:L77"/>
     <mergeCell ref="I60:L60"/>
     <mergeCell ref="I69:L69"/>
@@ -10459,18 +10432,16 @@
     <mergeCell ref="I68:L68"/>
     <mergeCell ref="I74:L74"/>
     <mergeCell ref="I62:L62"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="C83:L84"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I64:L64"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="I61:L61"/>
@@ -10481,13 +10452,20 @@
     <mergeCell ref="I76:L76"/>
     <mergeCell ref="I72:L72"/>
     <mergeCell ref="I73:L73"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="C83:L84"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="N10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
@@ -10502,11 +10480,33 @@
     <mergeCell ref="N30:R31"/>
     <mergeCell ref="I81:L81"/>
     <mergeCell ref="I57:L57"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="N23:R24"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="J105:L105"/>
     <mergeCell ref="J90:L90"/>
     <mergeCell ref="J92:L92"/>
     <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J93:L93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11299,12 +11299,12 @@
         <v>0</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="121" t="s">
+      <c r="I29" s="123" t="s">
         <v>397</v>
       </c>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="125"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
@@ -11325,10 +11325,10 @@
         <v>155</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="125"/>
       <c r="N30" s="64" t="s">
         <v>55</v>
       </c>
@@ -11353,12 +11353,12 @@
         <v>0</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="121" t="s">
+      <c r="I31" s="123" t="s">
         <v>397</v>
       </c>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
       <c r="N31" s="6" t="s">
         <v>94</v>
       </c>

--- a/content/notes/travel/travel.xlsx
+++ b/content/notes/travel/travel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/travel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413342D6-A9C7-714F-B590-C5860CF32CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D602AD7D-097A-ED4E-B53F-644BDB11C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{FBDD8960-5B88-4843-A147-F58767FB427D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{FBDD8960-5B88-4843-A147-F58767FB427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="10" r:id="rId1"/>
@@ -1958,12 +1958,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1971,6 +1980,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1982,59 +2000,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2044,8 +2019,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4463,12 +4463,12 @@
       <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
@@ -4653,9 +4653,9 @@
         <f>C8-B8</f>
         <v>3</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -4670,17 +4670,17 @@
         <f>SUM(G4:G8)</f>
         <v>36113</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
       <c r="L9" s="3">
         <f>SUM(L4:L8)</f>
         <v>17</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
@@ -4726,28 +4726,28 @@
       <c r="P11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="82"/>
       <c r="T11">
         <v>295.75</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
       <c r="N12" s="3" t="s">
         <v>81</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="P12" s="4">
         <v>1462</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
       <c r="T12">
         <v>399.85</v>
       </c>
@@ -4785,12 +4785,12 @@
       <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
       <c r="N13" s="3" t="s">
         <v>292</v>
       </c>
@@ -4800,8 +4800,8 @@
       <c r="P13" s="4">
         <v>974</v>
       </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
       <c r="T13">
         <v>851.75</v>
       </c>
@@ -4814,10 +4814,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
       <c r="N14" s="3" t="s">
         <v>282</v>
       </c>
@@ -4827,8 +4827,8 @@
       <c r="P14" s="4">
         <v>1781</v>
       </c>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
       <c r="T14">
         <v>1182.99</v>
       </c>
@@ -4855,10 +4855,10 @@
       <c r="H15" s="1">
         <v>602.32000000000005</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
       <c r="N15" s="3" t="s">
         <v>294</v>
       </c>
@@ -4868,8 +4868,8 @@
       <c r="P15" s="4">
         <v>1761</v>
       </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
       <c r="T15">
         <v>556.01</v>
       </c>
@@ -4894,10 +4894,10 @@
         <v>400</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
       <c r="N16" s="3" t="s">
         <v>308</v>
       </c>
@@ -4907,8 +4907,8 @@
       <c r="P16" s="4">
         <v>10088</v>
       </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
       <c r="T16">
         <v>296.06</v>
       </c>
@@ -4933,10 +4933,10 @@
         <v>300</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
       <c r="N17" s="3" t="s">
         <v>426</v>
       </c>
@@ -4944,8 +4944,8 @@
       <c r="P17" s="4">
         <v>29477</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
       <c r="T17">
         <v>355.27</v>
       </c>
@@ -4970,10 +4970,10 @@
       <c r="H18" s="1">
         <v>653.15</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
       <c r="N18" s="3"/>
       <c r="O18" s="4">
         <f>SUM(O12:O17)</f>
@@ -4983,8 +4983,8 @@
         <f>SUM(P12:P17)</f>
         <v>45543</v>
       </c>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
       <c r="T18">
         <v>1014.4</v>
       </c>
@@ -5009,15 +5009,15 @@
         <v>400</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
       <c r="T19">
         <v>83.84</v>
       </c>
@@ -5042,15 +5042,15 @@
         <v>300</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
       <c r="T20">
         <v>1177.33</v>
       </c>
@@ -5077,10 +5077,10 @@
       <c r="H21" s="1">
         <v>914.32</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
       <c r="N21" s="62" t="s">
         <v>38</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
       <c r="N22" s="6" t="s">
         <v>20</v>
       </c>
@@ -5125,10 +5125,10 @@
       <c r="P22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="90" t="s">
+      <c r="Q22" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="90"/>
+      <c r="R22" s="83"/>
       <c r="T22">
         <v>254.84</v>
       </c>
@@ -5153,10 +5153,10 @@
         <v>500</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
         <v>92</v>
@@ -5190,12 +5190,12 @@
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
         <v>93</v>
@@ -5231,10 +5231,10 @@
       <c r="H25" s="1">
         <v>2000.76</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="76"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="5">
@@ -5269,10 +5269,10 @@
       <c r="H26" s="1">
         <v>2848.38</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -5304,10 +5304,10 @@
       <c r="H27" s="1">
         <v>2848.38</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -5336,12 +5336,12 @@
         <v>500</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
       <c r="N28" s="62" t="s">
         <v>55</v>
       </c>
@@ -5373,10 +5373,10 @@
       <c r="H29" s="1">
         <v>542</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
       <c r="N29" s="6" t="s">
         <v>235</v>
       </c>
@@ -5416,10 +5416,10 @@
         <v>500</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
       <c r="N30" s="3">
         <v>600</v>
       </c>
@@ -5459,10 +5459,10 @@
         <v>500</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
       <c r="T31">
         <v>507.56</v>
       </c>
@@ -5487,10 +5487,10 @@
         <v>800</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
       <c r="T32">
         <v>302.12</v>
       </c>
@@ -5515,10 +5515,10 @@
         <v>500</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
       <c r="N33" s="64" t="s">
         <v>61</v>
       </c>
@@ -5545,10 +5545,10 @@
         <v>800</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
       <c r="N34" s="6" t="s">
         <v>67</v>
       </c>
@@ -5577,10 +5577,10 @@
         <v>1300</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
       <c r="N35" s="5">
         <f>G9+O7+P18+P25+H57+R30+H112</f>
         <v>187497.72</v>
@@ -5613,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="T36">
         <v>259.82</v>
       </c>
@@ -5641,10 +5641,10 @@
         <v>500</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
       <c r="T37">
         <v>797.59</v>
       </c>
@@ -5667,10 +5667,10 @@
         <v>500</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
       <c r="T38">
         <v>1027.2</v>
       </c>
@@ -5695,10 +5695,10 @@
         <v>500</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
       <c r="T39">
         <v>483.39</v>
       </c>
@@ -5723,12 +5723,12 @@
         <v>700</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="71" t="s">
+      <c r="I40" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
       <c r="T40">
         <v>71.3</v>
       </c>
@@ -5755,12 +5755,12 @@
       <c r="H41" s="1">
         <v>623.46</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
       <c r="T41">
         <v>744.74</v>
       </c>
@@ -5783,10 +5783,10 @@
         <v>1700</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
       <c r="T42">
         <v>472.77</v>
       </c>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
       <c r="T43">
         <v>1192.3599999999999</v>
       </c>
@@ -5839,12 +5839,12 @@
         <v>500</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
       <c r="T44">
         <v>327.9</v>
       </c>
@@ -5869,12 +5869,12 @@
         <v>2000</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
       <c r="T45">
         <v>1475.55</v>
       </c>
@@ -5901,10 +5901,10 @@
       <c r="H46" s="1">
         <v>117.69</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
       <c r="T46">
         <v>807.23</v>
       </c>
@@ -5929,10 +5929,10 @@
         <v>800</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
       <c r="T47">
         <v>821.53</v>
       </c>
@@ -5957,10 +5957,10 @@
         <v>700</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
       <c r="T48">
         <v>537.64</v>
       </c>
@@ -5985,12 +5985,12 @@
         <v>0</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
       <c r="T49">
         <v>3982.12</v>
       </c>
@@ -6016,12 +6016,12 @@
         <v>0</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="71" t="s">
+      <c r="I50" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
       <c r="T50">
         <v>649.95000000000005</v>
       </c>
@@ -6046,10 +6046,10 @@
         <v>900</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
       <c r="T51">
         <v>896.07</v>
       </c>
@@ -6062,10 +6062,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="31">
@@ -6087,12 +6087,12 @@
         <v>0</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="71" t="s">
+      <c r="I53" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="31">
@@ -6114,12 +6114,12 @@
         <v>0</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="71" t="s">
+      <c r="I54" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="31">
@@ -6141,12 +6141,12 @@
         <v>0</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="71" t="s">
+      <c r="I55" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
     </row>
     <row r="56" spans="2:21" ht="19" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
@@ -6246,11 +6246,11 @@
       <c r="I61" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J61" s="72" t="s">
+      <c r="J61" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="31">
@@ -6273,11 +6273,11 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="31">
@@ -6300,9 +6300,9 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="31">
@@ -6325,9 +6325,9 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="31">
@@ -6350,9 +6350,9 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="31">
@@ -6375,9 +6375,9 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="31">
@@ -6400,11 +6400,11 @@
         <v>993.13</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="71" t="s">
+      <c r="J67" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="31">
@@ -6427,11 +6427,11 @@
         <v>993.13</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="71" t="s">
+      <c r="J68" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="31">
@@ -6452,9 +6452,9 @@
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="31">
@@ -6475,9 +6475,9 @@
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="35">
@@ -6498,9 +6498,9 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="31">
@@ -6521,9 +6521,9 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="31">
@@ -6544,9 +6544,9 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="31">
@@ -6567,9 +6567,9 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="31">
@@ -6584,9 +6584,9 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="31">
@@ -6607,9 +6607,9 @@
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="31">
@@ -6630,9 +6630,9 @@
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="31">
@@ -6649,11 +6649,11 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="71" t="s">
+      <c r="J78" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="35">
@@ -6674,9 +6674,9 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="35">
@@ -6697,9 +6697,9 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="35">
@@ -6720,9 +6720,9 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="31">
@@ -6745,9 +6745,9 @@
         <v>7223</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="31">
@@ -6768,9 +6768,9 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="31">
@@ -6791,11 +6791,11 @@
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="71" t="s">
+      <c r="J84" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="31">
@@ -6816,9 +6816,9 @@
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="31">
@@ -6839,9 +6839,9 @@
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="31">
@@ -6862,9 +6862,9 @@
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="31">
@@ -6887,9 +6887,9 @@
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="31">
@@ -6912,9 +6912,9 @@
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="31">
@@ -6935,9 +6935,9 @@
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="31">
@@ -6958,9 +6958,9 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="31">
@@ -6981,9 +6981,9 @@
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="31">
@@ -7004,9 +7004,9 @@
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="31">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="71" t="s">
+      <c r="J94" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="79"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="31">
@@ -7052,9 +7052,9 @@
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="31">
@@ -7075,9 +7075,9 @@
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="31">
@@ -7098,9 +7098,9 @@
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="31">
@@ -7121,9 +7121,9 @@
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
+      <c r="J98" s="79"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="79"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="31">
@@ -7144,9 +7144,9 @@
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="31">
@@ -7167,9 +7167,9 @@
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
+      <c r="J100" s="79"/>
+      <c r="K100" s="79"/>
+      <c r="L100" s="79"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="31">
@@ -7190,9 +7190,9 @@
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
-      <c r="L101" s="71"/>
+      <c r="J101" s="79"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="79"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="31">
@@ -7213,9 +7213,9 @@
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
-      <c r="L102" s="71"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="31">
@@ -7236,9 +7236,9 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
-      <c r="L103" s="71"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="31">
@@ -7259,9 +7259,9 @@
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="31"/>
@@ -7278,9 +7278,9 @@
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="79"/>
+      <c r="L105" s="79"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="31">
@@ -7301,9 +7301,9 @@
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="31">
@@ -7324,9 +7324,9 @@
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
-      <c r="L107" s="71"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="31">
@@ -7347,11 +7347,11 @@
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="71" t="s">
+      <c r="J108" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="K108" s="71"/>
-      <c r="L108" s="71"/>
+      <c r="K108" s="79"/>
+      <c r="L108" s="79"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="31">
@@ -7372,11 +7372,11 @@
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="71" t="s">
+      <c r="J109" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="31">
@@ -7397,9 +7397,9 @@
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="31"/>
@@ -7410,9 +7410,9 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
+      <c r="J111" s="79"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
     </row>
     <row r="112" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
@@ -7429,12 +7429,116 @@
         <v>9209.26</v>
       </c>
       <c r="I112" s="3"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
+      <c r="J112" s="79"/>
+      <c r="K112" s="79"/>
+      <c r="L112" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="B58:L59"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:L11"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="N10:R10"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="N21:R21"/>
@@ -7459,110 +7563,6 @@
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="N19:R20"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:L11"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="B58:L59"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7573,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5F645C-75EE-8D4F-9EC4-3C4B736D2C50}">
   <dimension ref="B2:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:L24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7642,11 +7642,11 @@
       <c r="H3" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="83" t="s">
         <v>513</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
@@ -7686,9 +7686,9 @@
         <f>F4/L4</f>
         <v>19.585000000000001</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L10" si="0">C4-B4</f>
         <v>2</v>
@@ -7724,9 +7724,9 @@
         <f t="shared" ref="H5:H10" si="1">F5/L5</f>
         <v>26</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7762,9 +7762,9 @@
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7800,9 +7800,9 @@
         <f t="shared" si="1"/>
         <v>25.3</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7839,16 +7839,16 @@
         <f>F8/L8</f>
         <v>17.352857142857143</v>
       </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
       <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
@@ -7873,16 +7873,16 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
@@ -7907,9 +7907,9 @@
         <f t="shared" si="1"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7930,9 +7930,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="3"/>
       <c r="N11" s="6" t="s">
         <v>45</v>
@@ -7943,10 +7943,10 @@
       <c r="P11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="82"/>
     </row>
     <row r="12" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -7965,9 +7965,9 @@
         <f>F12/L12</f>
         <v>20.729600000000001</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="3">
         <f>SUM(L4:L11)</f>
         <v>25</v>
@@ -7981,23 +7981,23 @@
       <c r="P12" s="29">
         <v>7626.65</v>
       </c>
-      <c r="Q12" s="95" t="s">
+      <c r="Q12" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="R12" s="96"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
       <c r="N13" s="28" t="s">
         <v>523</v>
       </c>
@@ -8011,15 +8011,15 @@
       <c r="R13" s="58"/>
     </row>
     <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
       <c r="N14" s="28" t="s">
         <v>509</v>
       </c>
@@ -8029,24 +8029,24 @@
       <c r="P14" s="29">
         <v>6406</v>
       </c>
-      <c r="Q14" s="95" t="s">
+      <c r="Q14" s="93" t="s">
         <v>517</v>
       </c>
-      <c r="R14" s="96"/>
+      <c r="R14" s="94"/>
     </row>
     <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
       <c r="N15" s="22" t="s">
         <v>502</v>
       </c>
@@ -8065,10 +8065,10 @@
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
@@ -8078,12 +8078,12 @@
       <c r="H16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
       <c r="N16" s="22" t="s">
         <v>523</v>
       </c>
@@ -8091,19 +8091,19 @@
         <v>13.5</v>
       </c>
       <c r="P16" s="23"/>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="98"/>
+      <c r="R16" s="118"/>
     </row>
     <row r="17" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C17" s="48">
         <v>45875</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="46" t="s">
         <v>427</v>
       </c>
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="47"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
       <c r="N17" s="25" t="s">
         <v>523</v>
       </c>
@@ -8122,19 +8122,19 @@
         <v>8</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="121" t="s">
+      <c r="Q17" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="R17" s="122"/>
+      <c r="R17" s="103"/>
     </row>
     <row r="18" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="48">
         <v>45875</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="104" t="s">
         <v>516</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="46" t="s">
         <v>427</v>
       </c>
@@ -8144,10 +8144,10 @@
       <c r="H18" s="47">
         <v>508.44</v>
       </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
       <c r="N18" s="46" t="s">
         <v>485</v>
       </c>
@@ -8155,19 +8155,19 @@
         <v>81</v>
       </c>
       <c r="P18" s="47"/>
-      <c r="Q18" s="108" t="s">
+      <c r="Q18" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="R18" s="109"/>
+      <c r="R18" s="120"/>
     </row>
     <row r="19" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
         <v>45875</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="E19" s="101"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="46" t="s">
         <v>427</v>
       </c>
@@ -8175,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="47"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="112"/>
       <c r="N19" s="3" t="s">
         <v>510</v>
       </c>
@@ -8188,17 +8188,17 @@
       <c r="P19" s="4">
         <v>1037.5999999999999</v>
       </c>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
     </row>
     <row r="20" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="48">
         <v>45876</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="E20" s="101"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="46" t="s">
         <v>427</v>
       </c>
@@ -8206,24 +8206,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="47"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="112"/>
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
     </row>
     <row r="21" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C21" s="48">
         <v>45876</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E21" s="101"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="46" t="s">
         <v>427</v>
       </c>
@@ -8231,24 +8231,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="47"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="86"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
     </row>
     <row r="22" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C22" s="48">
         <v>45876</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="104" t="s">
         <v>490</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="46" t="s">
         <v>427</v>
       </c>
@@ -8256,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
       <c r="N22" s="3"/>
       <c r="O22" s="18">
         <f>SUM(O12:O21)</f>
@@ -8269,17 +8269,17 @@
         <f>SUM(P12:P19)</f>
         <v>20765.25</v>
       </c>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="111"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
     </row>
     <row r="23" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="48">
         <v>45876</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="46" t="s">
         <v>427</v>
       </c>
@@ -8287,24 +8287,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="47"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
     </row>
     <row r="24" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="48">
         <v>45876</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="104" t="s">
         <v>492</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="46" t="s">
         <v>427</v>
       </c>
@@ -8312,24 +8312,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="47"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="112"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
     </row>
     <row r="25" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="49">
         <v>45877</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="28" t="s">
         <v>175</v>
       </c>
@@ -8337,12 +8337,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="112" t="s">
+      <c r="I25" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="N25" s="64" t="s">
         <v>38</v>
       </c>
@@ -8355,10 +8355,10 @@
       <c r="C26" s="49">
         <v>45877</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="100"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="28" t="s">
         <v>175</v>
       </c>
@@ -8366,12 +8366,12 @@
         <v>0</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="112" t="s">
+      <c r="I26" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
       <c r="N26" s="6" t="s">
         <v>20</v>
       </c>
@@ -8381,19 +8381,19 @@
       <c r="P26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="R26" s="78"/>
+      <c r="R26" s="81"/>
     </row>
     <row r="27" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C27" s="49">
         <v>45877</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="28" t="s">
         <v>175</v>
       </c>
@@ -8401,12 +8401,12 @@
         <v>0</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="112" t="s">
+      <c r="I27" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
       <c r="N27" s="13">
         <v>45874</v>
       </c>
@@ -8416,17 +8416,17 @@
       <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="86"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="75"/>
     </row>
     <row r="28" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="49">
         <v>45877</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="28" t="s">
         <v>175</v>
       </c>
@@ -8434,12 +8434,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
       <c r="N28" s="13">
         <v>45900</v>
       </c>
@@ -8449,17 +8449,17 @@
       <c r="P28" s="3">
         <v>27979</v>
       </c>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="86"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
     </row>
     <row r="29" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C29" s="49">
         <v>45878</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="101" t="s">
         <v>407</v>
       </c>
-      <c r="E29" s="100"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="28" t="s">
         <v>175</v>
       </c>
@@ -8467,29 +8467,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="5">
         <f>P27+P28</f>
         <v>54979</v>
       </c>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="86"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
     </row>
     <row r="30" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C30" s="49">
         <v>45878</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="28" t="s">
         <v>175</v>
       </c>
@@ -8497,26 +8497,26 @@
         <v>0</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="112" t="s">
+      <c r="I30" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
     </row>
     <row r="31" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C31" s="49">
         <v>45878</v>
       </c>
-      <c r="D31" s="112" t="s">
+      <c r="D31" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="114"/>
+      <c r="E31" s="100"/>
       <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
@@ -8524,26 +8524,26 @@
         <v>0</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="112" t="s">
+      <c r="I31" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="114"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
     </row>
     <row r="32" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="49">
         <v>45878</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="100"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="28" t="s">
         <v>175</v>
       </c>
@@ -8551,12 +8551,12 @@
         <v>0</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="112" t="s">
+      <c r="I32" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
       <c r="M32" s="42"/>
       <c r="N32" s="62" t="s">
         <v>55</v>
@@ -8570,10 +8570,10 @@
       <c r="C33" s="49">
         <v>45879</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="E33" s="100"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="28" t="s">
         <v>175</v>
       </c>
@@ -8581,12 +8581,12 @@
         <v>0</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="112" t="s">
+      <c r="I33" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
       <c r="N33" s="6" t="s">
         <v>94</v>
       </c>
@@ -8607,10 +8607,10 @@
       <c r="C34" s="49">
         <v>45879</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="100"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="28" t="s">
         <v>175</v>
       </c>
@@ -8618,12 +8618,12 @@
         <v>0</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="112" t="s">
+      <c r="I34" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
       <c r="N34" s="3">
         <v>300</v>
       </c>
@@ -8642,10 +8642,10 @@
       <c r="C35" s="49">
         <v>45880</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="100"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="28" t="s">
         <v>175</v>
       </c>
@@ -8655,19 +8655,19 @@
       <c r="H35" s="29">
         <v>9660.4</v>
       </c>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
     </row>
     <row r="36" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="49">
         <v>45881</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="E36" s="100"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="28" t="s">
         <v>175</v>
       </c>
@@ -8675,21 +8675,21 @@
         <v>0</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="112" t="s">
+      <c r="I36" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C37" s="49">
         <v>45881</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="101" t="s">
         <v>361</v>
       </c>
-      <c r="E37" s="100"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="28" t="s">
         <v>175</v>
       </c>
@@ -8697,27 +8697,27 @@
         <v>0</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="112" t="s">
+      <c r="I37" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
-      <c r="N37" s="116" t="s">
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="100"/>
+      <c r="N37" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
     </row>
     <row r="38" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C38" s="49">
         <v>45881</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="100"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="28" t="s">
         <v>175</v>
       </c>
@@ -8725,12 +8725,12 @@
         <v>0</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="112" t="s">
+      <c r="I38" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
       <c r="N38" s="6" t="s">
         <v>67</v>
       </c>
@@ -8748,10 +8748,10 @@
       <c r="C39" s="49">
         <v>45882</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="100"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="28" t="s">
         <v>175</v>
       </c>
@@ -8759,12 +8759,12 @@
         <v>0</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="112" t="s">
+      <c r="I39" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="114"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="100"/>
       <c r="N39" s="5">
         <f>(F12+O22+G82+G110)*R3+O7+P29</f>
         <v>204376.2</v>
@@ -8785,10 +8785,10 @@
       <c r="C40" s="49">
         <v>45882</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="100"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="28" t="s">
         <v>175</v>
       </c>
@@ -8796,21 +8796,21 @@
         <v>0</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="112" t="s">
+      <c r="I40" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="114"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
     <row r="41" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="49">
         <v>45882</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="100"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="28" t="s">
         <v>175</v>
       </c>
@@ -8818,21 +8818,21 @@
         <v>0</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="112" t="s">
+      <c r="I41" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="114"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="100"/>
     </row>
     <row r="42" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="49">
         <v>45883</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="100"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="28" t="s">
         <v>176</v>
       </c>
@@ -8840,21 +8840,21 @@
         <v>0</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="112" t="s">
+      <c r="I42" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="114"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="100"/>
     </row>
     <row r="43" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C43" s="49">
         <v>45883</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="100"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="28" t="s">
         <v>176</v>
       </c>
@@ -8864,19 +8864,19 @@
       <c r="H43" s="29">
         <v>1830.7</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="114"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="100"/>
     </row>
     <row r="44" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C44" s="50">
         <v>45884</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D44" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="E44" s="100"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="28" t="s">
         <v>176</v>
       </c>
@@ -8884,21 +8884,21 @@
         <v>0</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="112" t="s">
+      <c r="I44" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="114"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
     </row>
     <row r="45" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C45" s="50">
         <v>45884</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="E45" s="100"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="28" t="s">
         <v>176</v>
       </c>
@@ -8906,21 +8906,21 @@
         <v>0</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="112" t="s">
+      <c r="I45" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="114"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
     </row>
     <row r="46" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C46" s="50">
         <v>45884</v>
       </c>
-      <c r="D46" s="100" t="s">
+      <c r="D46" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="E46" s="100"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="28" t="s">
         <v>176</v>
       </c>
@@ -8928,21 +8928,21 @@
         <v>0</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="112" t="s">
+      <c r="I46" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="114"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
     </row>
     <row r="47" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C47" s="50">
         <v>45884</v>
       </c>
-      <c r="D47" s="100" t="s">
+      <c r="D47" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="100"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="28" t="s">
         <v>176</v>
       </c>
@@ -8950,21 +8950,21 @@
         <v>0</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="112" t="s">
+      <c r="I47" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="114"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="100"/>
     </row>
     <row r="48" spans="3:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="50">
         <v>45884</v>
       </c>
-      <c r="D48" s="100" t="s">
+      <c r="D48" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="100"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="28" t="s">
         <v>176</v>
       </c>
@@ -8972,21 +8972,21 @@
         <v>0</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="112" t="s">
+      <c r="I48" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="114"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="100"/>
     </row>
     <row r="49" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C49" s="51">
         <v>45885</v>
       </c>
-      <c r="D49" s="99" t="s">
+      <c r="D49" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="99"/>
+      <c r="E49" s="106"/>
       <c r="F49" s="25" t="s">
         <v>177</v>
       </c>
@@ -8994,21 +8994,21 @@
         <v>9</v>
       </c>
       <c r="H49" s="26"/>
-      <c r="I49" s="92" t="s">
+      <c r="I49" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="94"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="116"/>
     </row>
     <row r="50" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C50" s="51">
         <v>45885</v>
       </c>
-      <c r="D50" s="99" t="s">
+      <c r="D50" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="E50" s="99"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="25" t="s">
         <v>177</v>
       </c>
@@ -9018,19 +9018,19 @@
       <c r="H50" s="26">
         <v>2033.77</v>
       </c>
-      <c r="I50" s="92"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="94"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="116"/>
     </row>
     <row r="51" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="51">
         <v>45886</v>
       </c>
-      <c r="D51" s="99" t="s">
+      <c r="D51" s="106" t="s">
         <v>497</v>
       </c>
-      <c r="E51" s="99"/>
+      <c r="E51" s="106"/>
       <c r="F51" s="25" t="s">
         <v>177</v>
       </c>
@@ -9038,19 +9038,19 @@
         <v>8</v>
       </c>
       <c r="H51" s="26"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="94"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="116"/>
     </row>
     <row r="52" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C52" s="51">
         <v>45886</v>
       </c>
-      <c r="D52" s="99" t="s">
+      <c r="D52" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="E52" s="99"/>
+      <c r="E52" s="106"/>
       <c r="F52" s="25" t="s">
         <v>177</v>
       </c>
@@ -9058,21 +9058,21 @@
         <v>5</v>
       </c>
       <c r="H52" s="26"/>
-      <c r="I52" s="92" t="s">
+      <c r="I52" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="94"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C53" s="51">
         <v>45886</v>
       </c>
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E53" s="99"/>
+      <c r="E53" s="106"/>
       <c r="F53" s="25" t="s">
         <v>177</v>
       </c>
@@ -9082,19 +9082,19 @@
       <c r="H53" s="26">
         <v>1598.8</v>
       </c>
-      <c r="I53" s="92"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="94"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="116"/>
     </row>
     <row r="54" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C54" s="51">
         <v>45887</v>
       </c>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="99"/>
+      <c r="E54" s="106"/>
       <c r="F54" s="25" t="s">
         <v>180</v>
       </c>
@@ -9102,19 +9102,19 @@
         <v>6</v>
       </c>
       <c r="H54" s="26"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="94"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="116"/>
     </row>
     <row r="55" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C55" s="51">
         <v>45887</v>
       </c>
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="E55" s="99"/>
+      <c r="E55" s="106"/>
       <c r="F55" s="25" t="s">
         <v>180</v>
       </c>
@@ -9122,19 +9122,19 @@
         <v>4.5</v>
       </c>
       <c r="H55" s="26"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="94"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="116"/>
     </row>
     <row r="56" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C56" s="51">
         <v>45887</v>
       </c>
-      <c r="D56" s="99" t="s">
+      <c r="D56" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="E56" s="99"/>
+      <c r="E56" s="106"/>
       <c r="F56" s="25" t="s">
         <v>180</v>
       </c>
@@ -9142,21 +9142,21 @@
         <v>14</v>
       </c>
       <c r="H56" s="26"/>
-      <c r="I56" s="92" t="s">
+      <c r="I56" s="114" t="s">
         <v>520</v>
       </c>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="94"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="116"/>
     </row>
     <row r="57" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C57" s="51">
         <v>45888</v>
       </c>
-      <c r="D57" s="99" t="s">
+      <c r="D57" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="E57" s="99"/>
+      <c r="E57" s="106"/>
       <c r="F57" s="25" t="s">
         <v>181</v>
       </c>
@@ -9164,19 +9164,19 @@
         <v>12</v>
       </c>
       <c r="H57" s="26"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="116"/>
     </row>
     <row r="58" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C58" s="51">
         <v>45888</v>
       </c>
-      <c r="D58" s="99" t="s">
+      <c r="D58" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="99"/>
+      <c r="E58" s="106"/>
       <c r="F58" s="25" t="s">
         <v>177</v>
       </c>
@@ -9186,19 +9186,19 @@
       <c r="H58" s="26">
         <v>1221.33</v>
       </c>
-      <c r="I58" s="92"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="94"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="116"/>
     </row>
     <row r="59" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C59" s="51">
         <v>45890</v>
       </c>
-      <c r="D59" s="99" t="s">
+      <c r="D59" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="99"/>
+      <c r="E59" s="106"/>
       <c r="F59" s="25" t="s">
         <v>177</v>
       </c>
@@ -9206,19 +9206,19 @@
         <v>8</v>
       </c>
       <c r="H59" s="26"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="94"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+      <c r="L59" s="116"/>
     </row>
     <row r="60" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C60" s="51">
         <v>45891</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="D60" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="99"/>
+      <c r="E60" s="106"/>
       <c r="F60" s="25" t="s">
         <v>177</v>
       </c>
@@ -9226,19 +9226,19 @@
         <v>10</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="94"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="116"/>
     </row>
     <row r="61" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C61" s="51">
         <v>45891</v>
       </c>
-      <c r="D61" s="99" t="s">
+      <c r="D61" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="E61" s="99"/>
+      <c r="E61" s="106"/>
       <c r="F61" s="25" t="s">
         <v>177</v>
       </c>
@@ -9246,19 +9246,19 @@
         <v>5</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="94"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="116"/>
     </row>
     <row r="62" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C62" s="51">
         <v>45891</v>
       </c>
-      <c r="D62" s="99" t="s">
+      <c r="D62" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="99"/>
+      <c r="E62" s="106"/>
       <c r="F62" s="25" t="s">
         <v>177</v>
       </c>
@@ -9268,19 +9268,19 @@
       <c r="H62" s="26">
         <v>1598.8</v>
       </c>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="94"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="116"/>
     </row>
     <row r="63" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C63" s="52">
         <v>45894</v>
       </c>
-      <c r="D63" s="91" t="s">
+      <c r="D63" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="E63" s="91"/>
+      <c r="E63" s="105"/>
       <c r="F63" s="22" t="s">
         <v>179</v>
       </c>
@@ -9288,21 +9288,21 @@
         <v>17</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="102" t="s">
+      <c r="I63" s="107" t="s">
         <v>402</v>
       </c>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="104"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="108"/>
     </row>
     <row r="64" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C64" s="52">
         <v>45894</v>
       </c>
-      <c r="D64" s="91" t="s">
+      <c r="D64" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="91"/>
+      <c r="E64" s="105"/>
       <c r="F64" s="22" t="s">
         <v>188</v>
       </c>
@@ -9310,19 +9310,19 @@
         <v>12</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="104"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="108"/>
     </row>
     <row r="65" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C65" s="52">
         <v>45895</v>
       </c>
-      <c r="D65" s="91" t="s">
+      <c r="D65" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="E65" s="91"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="22" t="s">
         <v>189</v>
       </c>
@@ -9330,19 +9330,19 @@
         <v>8</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="104"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="108"/>
     </row>
     <row r="66" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C66" s="52">
         <v>45895</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="E66" s="91"/>
+      <c r="E66" s="105"/>
       <c r="F66" s="22" t="s">
         <v>189</v>
       </c>
@@ -9350,19 +9350,19 @@
         <v>4</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="104"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="108"/>
     </row>
     <row r="67" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C67" s="52">
         <v>45897</v>
       </c>
-      <c r="D67" s="91" t="s">
+      <c r="D67" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="E67" s="91"/>
+      <c r="E67" s="105"/>
       <c r="F67" s="22" t="s">
         <v>179</v>
       </c>
@@ -9370,21 +9370,21 @@
         <v>3.5</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="102" t="s">
+      <c r="I67" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J67" s="103"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="104"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="108"/>
     </row>
     <row r="68" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C68" s="52">
         <v>45897</v>
       </c>
-      <c r="D68" s="91" t="s">
+      <c r="D68" s="105" t="s">
         <v>406</v>
       </c>
-      <c r="E68" s="91"/>
+      <c r="E68" s="105"/>
       <c r="F68" s="22" t="s">
         <v>179</v>
       </c>
@@ -9392,21 +9392,21 @@
         <v>0</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="102" t="s">
+      <c r="I68" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
-      <c r="L68" s="104"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="108"/>
     </row>
     <row r="69" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C69" s="52">
         <v>45897</v>
       </c>
-      <c r="D69" s="91" t="s">
+      <c r="D69" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="91"/>
+      <c r="E69" s="105"/>
       <c r="F69" s="22" t="s">
         <v>179</v>
       </c>
@@ -9414,21 +9414,21 @@
         <v>0</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="102" t="s">
+      <c r="I69" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="104"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="108"/>
     </row>
     <row r="70" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C70" s="52">
         <v>45897</v>
       </c>
-      <c r="D70" s="91" t="s">
+      <c r="D70" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="E70" s="91"/>
+      <c r="E70" s="105"/>
       <c r="F70" s="22" t="s">
         <v>179</v>
       </c>
@@ -9436,21 +9436,21 @@
         <v>10</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="102" t="s">
+      <c r="I70" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="104"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="108"/>
     </row>
     <row r="71" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C71" s="52">
         <v>45897</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D71" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="E71" s="91"/>
+      <c r="E71" s="105"/>
       <c r="F71" s="22" t="s">
         <v>179</v>
       </c>
@@ -9458,21 +9458,21 @@
         <v>0</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="102" t="s">
+      <c r="I71" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="104"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="108"/>
     </row>
     <row r="72" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C72" s="52">
         <v>45898</v>
       </c>
-      <c r="D72" s="91" t="s">
+      <c r="D72" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="E72" s="91"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="22" t="s">
         <v>179</v>
       </c>
@@ -9480,21 +9480,21 @@
         <v>0</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="102" t="s">
+      <c r="I72" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="104"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="108"/>
     </row>
     <row r="73" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C73" s="52">
         <v>45898</v>
       </c>
-      <c r="D73" s="91" t="s">
+      <c r="D73" s="105" t="s">
         <v>501</v>
       </c>
-      <c r="E73" s="91"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="22" t="s">
         <v>179</v>
       </c>
@@ -9502,21 +9502,21 @@
         <v>0</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="102" t="s">
+      <c r="I73" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="104"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="108"/>
     </row>
     <row r="74" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C74" s="52">
         <v>45898</v>
       </c>
-      <c r="D74" s="91" t="s">
+      <c r="D74" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="E74" s="91"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="22" t="s">
         <v>179</v>
       </c>
@@ -9524,21 +9524,21 @@
         <v>0</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="102" t="s">
+      <c r="I74" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="104"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="108"/>
     </row>
     <row r="75" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C75" s="52">
         <v>45898</v>
       </c>
-      <c r="D75" s="91" t="s">
+      <c r="D75" s="105" t="s">
         <v>405</v>
       </c>
-      <c r="E75" s="91"/>
+      <c r="E75" s="105"/>
       <c r="F75" s="22" t="s">
         <v>179</v>
       </c>
@@ -9546,21 +9546,21 @@
         <v>0</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="102" t="s">
+      <c r="I75" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="104"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="108"/>
     </row>
     <row r="76" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C76" s="52">
         <v>45898</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="91"/>
+      <c r="E76" s="105"/>
       <c r="F76" s="22" t="s">
         <v>179</v>
       </c>
@@ -9568,21 +9568,21 @@
         <v>0</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="102" t="s">
+      <c r="I76" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="104"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="108"/>
     </row>
     <row r="77" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C77" s="52">
         <v>45898</v>
       </c>
-      <c r="D77" s="102" t="s">
+      <c r="D77" s="107" t="s">
         <v>500</v>
       </c>
-      <c r="E77" s="104"/>
+      <c r="E77" s="108"/>
       <c r="F77" s="22" t="s">
         <v>179</v>
       </c>
@@ -9590,21 +9590,21 @@
         <v>0</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="102" t="s">
+      <c r="I77" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="104"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="108"/>
     </row>
     <row r="78" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C78" s="52">
         <v>45899</v>
       </c>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="107" t="s">
         <v>522</v>
       </c>
-      <c r="E78" s="104"/>
+      <c r="E78" s="108"/>
       <c r="F78" s="22" t="s">
         <v>179</v>
       </c>
@@ -9623,10 +9623,10 @@
       <c r="C79" s="52">
         <v>45899</v>
       </c>
-      <c r="D79" s="91" t="s">
+      <c r="D79" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="91"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="22" t="s">
         <v>179</v>
       </c>
@@ -9634,21 +9634,21 @@
         <v>5</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="102" t="s">
+      <c r="I79" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="104"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="108"/>
     </row>
     <row r="80" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C80" s="52">
         <v>45899</v>
       </c>
-      <c r="D80" s="91" t="s">
+      <c r="D80" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="E80" s="91"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="22" t="s">
         <v>179</v>
       </c>
@@ -9656,29 +9656,29 @@
         <v>0</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="102" t="s">
+      <c r="I80" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="J80" s="103"/>
-      <c r="K80" s="103"/>
-      <c r="L80" s="104"/>
+      <c r="J80" s="113"/>
+      <c r="K80" s="113"/>
+      <c r="L80" s="108"/>
     </row>
     <row r="81" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="82"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="87"/>
+      <c r="L81" s="88"/>
     </row>
     <row r="82" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="15"/>
       <c r="G82" s="4">
         <f>SUM(G17:G80)</f>
@@ -9694,28 +9694,28 @@
       <c r="L82" s="70"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
     </row>
     <row r="85" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C85" s="64" t="s">
@@ -9781,11 +9781,11 @@
       <c r="I87" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="J87" s="101" t="s">
+      <c r="J87" s="104" t="s">
         <v>507</v>
       </c>
-      <c r="K87" s="101"/>
-      <c r="L87" s="101"/>
+      <c r="K87" s="104"/>
+      <c r="L87" s="104"/>
     </row>
     <row r="88" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C88" s="27">
@@ -9807,9 +9807,9 @@
         <v>1220</v>
       </c>
       <c r="I88" s="28"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="100"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
     </row>
     <row r="89" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C89" s="27">
@@ -9831,11 +9831,11 @@
         <v>1914</v>
       </c>
       <c r="I89" s="28"/>
-      <c r="J89" s="100" t="s">
+      <c r="J89" s="101" t="s">
         <v>506</v>
       </c>
-      <c r="K89" s="100"/>
-      <c r="L89" s="100"/>
+      <c r="K89" s="101"/>
+      <c r="L89" s="101"/>
     </row>
     <row r="90" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C90" s="24">
@@ -9855,9 +9855,9 @@
       </c>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="99"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="99"/>
+      <c r="J90" s="106"/>
+      <c r="K90" s="106"/>
+      <c r="L90" s="106"/>
     </row>
     <row r="91" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C91" s="24">
@@ -9877,9 +9877,9 @@
       </c>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="99"/>
+      <c r="J91" s="106"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="106"/>
     </row>
     <row r="92" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C92" s="24">
@@ -9899,9 +9899,9 @@
       </c>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="99"/>
-      <c r="K92" s="99"/>
-      <c r="L92" s="99"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
+      <c r="L92" s="106"/>
     </row>
     <row r="93" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C93" s="24">
@@ -9921,9 +9921,9 @@
       </c>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="99"/>
-      <c r="K93" s="99"/>
-      <c r="L93" s="99"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="106"/>
+      <c r="L93" s="106"/>
     </row>
     <row r="94" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C94" s="53">
@@ -9943,9 +9943,9 @@
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="99"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="99"/>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106"/>
+      <c r="L94" s="106"/>
     </row>
     <row r="95" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C95" s="53">
@@ -9965,9 +9965,9 @@
       </c>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="99"/>
-      <c r="L95" s="99"/>
+      <c r="J95" s="106"/>
+      <c r="K95" s="106"/>
+      <c r="L95" s="106"/>
     </row>
     <row r="96" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C96" s="21">
@@ -9991,11 +9991,11 @@
       <c r="I96" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="J96" s="91" t="s">
+      <c r="J96" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="K96" s="91"/>
-      <c r="L96" s="91"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
     </row>
     <row r="97" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C97" s="21">
@@ -10015,9 +10015,9 @@
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="91"/>
-      <c r="K97" s="91"/>
-      <c r="L97" s="91"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
     </row>
     <row r="98" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C98" s="21">
@@ -10037,9 +10037,9 @@
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="91"/>
-      <c r="K98" s="91"/>
-      <c r="L98" s="91"/>
+      <c r="J98" s="105"/>
+      <c r="K98" s="105"/>
+      <c r="L98" s="105"/>
     </row>
     <row r="99" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C99" s="21">
@@ -10059,9 +10059,9 @@
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="91"/>
-      <c r="K99" s="91"/>
-      <c r="L99" s="91"/>
+      <c r="J99" s="105"/>
+      <c r="K99" s="105"/>
+      <c r="L99" s="105"/>
     </row>
     <row r="100" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C100" s="21">
@@ -10081,9 +10081,9 @@
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="91"/>
-      <c r="K100" s="91"/>
-      <c r="L100" s="91"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="105"/>
+      <c r="L100" s="105"/>
     </row>
     <row r="101" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C101" s="21">
@@ -10103,11 +10103,11 @@
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="102" t="s">
+      <c r="J101" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="K101" s="103"/>
-      <c r="L101" s="104"/>
+      <c r="K101" s="113"/>
+      <c r="L101" s="108"/>
     </row>
     <row r="102" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C102" s="21">
@@ -10127,9 +10127,9 @@
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="91"/>
-      <c r="K102" s="91"/>
-      <c r="L102" s="91"/>
+      <c r="J102" s="105"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
     </row>
     <row r="103" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C103" s="21">
@@ -10151,9 +10151,9 @@
         <v>2542</v>
       </c>
       <c r="I103" s="22"/>
-      <c r="J103" s="91"/>
-      <c r="K103" s="91"/>
-      <c r="L103" s="91"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
     </row>
     <row r="104" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C104" s="21">
@@ -10173,9 +10173,9 @@
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="91"/>
-      <c r="K104" s="91"/>
-      <c r="L104" s="91"/>
+      <c r="J104" s="105"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
     </row>
     <row r="105" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C105" s="21">
@@ -10195,9 +10195,9 @@
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="91"/>
-      <c r="L105" s="91"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
     </row>
     <row r="106" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C106" s="21">
@@ -10219,9 +10219,9 @@
         <v>640.64</v>
       </c>
       <c r="I106" s="22"/>
-      <c r="J106" s="91"/>
-      <c r="K106" s="91"/>
-      <c r="L106" s="91"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
     </row>
     <row r="107" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C107" s="21">
@@ -10241,9 +10241,9 @@
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="91"/>
-      <c r="K107" s="91"/>
-      <c r="L107" s="91"/>
+      <c r="J107" s="105"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
     </row>
     <row r="108" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C108" s="21">
@@ -10265,9 +10265,9 @@
         <v>693.52</v>
       </c>
       <c r="I108" s="22"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="91"/>
-      <c r="L108" s="91"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
@@ -10277,9 +10277,9 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
     </row>
     <row r="110" spans="3:12" ht="19" x14ac:dyDescent="0.25">
       <c r="C110" s="13"/>
@@ -10312,6 +10312,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N30:R31"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="N23:R24"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="C83:L84"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="N37:Q37"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="I3:K3"/>
@@ -10336,177 +10507,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="C83:L84"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N30:R31"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="N23:R24"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J93:L93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10517,7 +10517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674ABC88-18C8-FD43-A638-81534DB08858}">
   <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -10583,12 +10583,12 @@
       <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
@@ -10622,10 +10622,10 @@
         <v>2001</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="39">
         <f>C4-B4</f>
         <v>8</v>
@@ -10651,10 +10651,10 @@
         <v>400</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
       <c r="L5" s="39">
         <f t="shared" ref="L5:L6" si="0">C5-B5</f>
         <v>1</v>
@@ -10680,12 +10680,12 @@
         <v>746</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="80">
+      <c r="H6" s="86">
         <v>680</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10711,10 +10711,10 @@
         <v>625</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="39">
         <f t="shared" ref="L7" si="1">C7-B7</f>
         <v>1</v>
@@ -10730,14 +10730,14 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="39"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -10752,17 +10752,17 @@
         <f>F9*$R$3</f>
         <v>50167.600000000006</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
       <c r="L9" s="3">
         <f>SUM(L4:L8)</f>
         <v>14</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
@@ -10805,25 +10805,25 @@
       <c r="P11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="82"/>
     </row>
     <row r="12" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
       <c r="N12" s="3" t="s">
         <v>399</v>
       </c>
@@ -10831,8 +10831,8 @@
         <v>1299</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
     </row>
     <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -10869,8 +10869,8 @@
         <v>499</v>
       </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -10886,10 +10886,10 @@
         <v>69</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
       <c r="N14" s="3" t="s">
         <v>444</v>
       </c>
@@ -10897,8 +10897,8 @@
         <v>70</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -10914,12 +10914,12 @@
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
       <c r="N15" s="3" t="s">
         <v>458</v>
       </c>
@@ -10927,8 +10927,8 @@
         <v>175</v>
       </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -10944,17 +10944,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
     </row>
     <row r="17" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -10970,17 +10970,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
       <c r="N17" s="3"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
     </row>
     <row r="18" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -10996,17 +10996,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
       <c r="N18" s="3"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
     </row>
     <row r="19" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -11022,17 +11022,17 @@
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
     </row>
     <row r="20" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -11048,12 +11048,12 @@
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
       <c r="N20" s="3"/>
       <c r="O20" s="18">
         <f>SUM(O12:O19)</f>
@@ -11063,8 +11063,8 @@
         <f>O20*$R$3</f>
         <v>27171.9</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
@@ -11080,17 +11080,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -11106,15 +11106,15 @@
         <v>169</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -11130,12 +11130,12 @@
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
       <c r="N23" s="64" t="s">
         <v>38</v>
       </c>
@@ -11159,10 +11159,10 @@
         <v>50</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
       <c r="N24" s="6" t="s">
         <v>20</v>
       </c>
@@ -11192,12 +11192,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
       <c r="N25" s="13"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -11219,12 +11219,12 @@
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
       <c r="N26" s="13"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -11246,12 +11246,12 @@
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
@@ -11275,10 +11275,10 @@
         <v>155</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -11395,12 +11395,12 @@
         <v>0</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4"/>
       <c r="P32" s="3"/>
@@ -11423,12 +11423,12 @@
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
@@ -11444,10 +11444,10 @@
         <v>60</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -11463,12 +11463,12 @@
         <v>0</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="71" t="s">
+      <c r="I35" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
       <c r="N35" s="64" t="s">
         <v>61</v>
       </c>
@@ -11488,12 +11488,12 @@
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="71" t="s">
+      <c r="I36" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="N36" s="6" t="s">
         <v>67</v>
       </c>
@@ -11515,12 +11515,12 @@
         <v>0</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
       <c r="N37" s="5">
         <f>O7+G9+H51+P20+P27+T32+H77</f>
         <v>138449.00000000003</v>
@@ -11541,10 +11541,10 @@
         <v>20</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -11560,10 +11560,10 @@
         <v>20</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
@@ -11579,10 +11579,10 @@
         <v>20</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -11598,10 +11598,10 @@
         <v>25</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
@@ -11617,10 +11617,10 @@
         <v>145</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -11636,12 +11636,12 @@
         <v>103</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
@@ -11657,10 +11657,10 @@
         <v>75</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
@@ -11676,10 +11676,10 @@
         <v>190</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
@@ -11695,10 +11695,10 @@
         <v>180</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
@@ -11714,10 +11714,10 @@
         <v>100</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
@@ -11733,10 +11733,10 @@
         <v>200</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
@@ -11746,10 +11746,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
     </row>
     <row r="50" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
@@ -11849,11 +11849,11 @@
       <c r="I55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -11870,9 +11870,9 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
@@ -11889,11 +11889,11 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
@@ -11910,11 +11910,11 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="71" t="s">
+      <c r="J58" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
@@ -11931,11 +11931,11 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
@@ -11952,11 +11952,11 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="71" t="s">
+      <c r="J60" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -11973,11 +11973,11 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="71" t="s">
+      <c r="J61" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
@@ -11996,9 +11996,9 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
@@ -12017,9 +12017,9 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
@@ -12036,11 +12036,11 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
@@ -12059,9 +12059,9 @@
       <c r="I65" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
@@ -12078,9 +12078,9 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
@@ -12097,9 +12097,9 @@
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
@@ -12118,9 +12118,9 @@
       <c r="I68" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
@@ -12139,9 +12139,9 @@
       <c r="I69" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
@@ -12160,9 +12160,9 @@
       <c r="I70" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
@@ -12181,9 +12181,9 @@
       <c r="I71" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
@@ -12202,9 +12202,9 @@
       <c r="I72" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
@@ -12223,9 +12223,9 @@
       <c r="I73" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
@@ -12244,9 +12244,9 @@
       <c r="I74" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
@@ -12265,9 +12265,9 @@
       <c r="I75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
     </row>
     <row r="76" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
@@ -12278,9 +12278,9 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
     </row>
     <row r="77" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
@@ -12297,9 +12297,9 @@
         <v>13020.7</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
@@ -12329,6 +12329,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B10:L11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N21:R22"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I28:L28"/>
     <mergeCell ref="B78:L79"/>
     <mergeCell ref="B52:L53"/>
     <mergeCell ref="B54:L54"/>
@@ -12345,81 +12420,6 @@
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I25:L25"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N21:R22"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B10:L11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12496,12 +12496,12 @@
       <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
@@ -12535,12 +12535,12 @@
         <v>1640</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="80">
+      <c r="H4" s="86">
         <v>1476</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="3">
         <f>C4-B4</f>
         <v>4</v>
@@ -12566,12 +12566,12 @@
         <v>2730</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="80">
+      <c r="H5" s="86">
         <v>2590</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
       <c r="L5" s="3">
         <f>C5-B5</f>
         <v>7</v>
@@ -12587,10 +12587,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -12609,13 +12609,13 @@
         <f>F7*$R$3</f>
         <v>38980.400000000001</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="86">
         <f>H4+H5</f>
         <v>4066</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="3">
         <f>SUM(L4:L6)</f>
         <v>11</v>
@@ -12636,9 +12636,9 @@
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
@@ -12652,24 +12652,24 @@
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
       <c r="N10" s="64" t="s">
         <v>73</v>
       </c>
@@ -12715,10 +12715,10 @@
       <c r="P11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="82"/>
     </row>
     <row r="12" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -12734,10 +12734,10 @@
         <v>150</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
       <c r="N12" s="3" t="s">
         <v>379</v>
       </c>
@@ -12745,8 +12745,8 @@
         <v>499</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
     </row>
     <row r="13" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -12762,12 +12762,12 @@
         <v>140</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
       <c r="N13" s="3" t="s">
         <v>464</v>
       </c>
@@ -12775,8 +12775,8 @@
         <v>240</v>
       </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -12792,15 +12792,15 @@
         <v>200</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -12816,17 +12816,17 @@
         <v>160</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
       <c r="N15" s="3"/>
       <c r="O15" s="18"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -12842,15 +12842,15 @@
         <v>1955</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
     </row>
     <row r="17" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -12866,17 +12866,17 @@
         <v>250</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
       <c r="N17" s="3"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
     </row>
     <row r="18" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -12892,15 +12892,15 @@
         <v>150</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
       <c r="N18" s="3"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
     </row>
     <row r="19" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -12916,15 +12916,15 @@
         <v>100</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
     </row>
     <row r="20" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -12940,12 +12940,12 @@
         <v>230</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
       <c r="N20" s="3"/>
       <c r="O20" s="18">
         <f>SUM(O12:O19)</f>
@@ -12955,8 +12955,8 @@
         <f>O20*$R$3</f>
         <v>6591.88</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
@@ -12972,17 +12972,17 @@
         <v>180</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -12998,17 +12998,17 @@
         <v>285</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="2:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -13024,10 +13024,10 @@
         <v>220</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
       <c r="N23" s="64" t="s">
         <v>38</v>
       </c>
@@ -13051,10 +13051,10 @@
         <v>60</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
       <c r="N24" s="6" t="s">
         <v>20</v>
       </c>
@@ -13084,10 +13084,10 @@
         <v>150</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
       <c r="N25" s="13">
         <v>45885</v>
       </c>
@@ -13113,10 +13113,10 @@
         <v>219</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
       <c r="N26" s="13"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -13132,10 +13132,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
@@ -13153,10 +13153,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -13171,10 +13171,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
@@ -13316,11 +13316,11 @@
       <c r="I35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
       <c r="N35" s="64" t="s">
         <v>61</v>
       </c>
@@ -13347,9 +13347,9 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
       <c r="N36" s="6" t="s">
         <v>67</v>
       </c>
@@ -13368,9 +13368,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
       <c r="N37" s="5">
         <f>O7+G7+H31+P20+P27+T32+H46</f>
         <v>112496.76000000001</v>
@@ -13388,9 +13388,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="31">
@@ -13403,9 +13403,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="31">
@@ -13418,9 +13418,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -13431,9 +13431,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
@@ -13444,9 +13444,9 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -13457,9 +13457,9 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
@@ -13470,9 +13470,9 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
@@ -13534,33 +13534,24 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B47:L48"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B32:L33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="I15:L15"/>
@@ -13576,24 +13567,33 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B32:L33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B47:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
